--- a/capiq_data/in_process_data/IQ35028.xlsx
+++ b/capiq_data/in_process_data/IQ35028.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE05E7AE-9ACD-4379-8955-1670CD252C49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F5A224-C0C3-408A-A5E6-AFAF6F456465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"34feff60-5e60-4482-b478-1a0a0bab73c1"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d0f17455-7167-4e02-87cd-424ca9363769"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>48.225999999999999</v>
+        <v>9.4649999999999999</v>
       </c>
       <c r="D2">
-        <v>364.64400000000001</v>
+        <v>157.154</v>
       </c>
       <c r="E2">
-        <v>169.16499999999999</v>
+        <v>145.24700000000001</v>
       </c>
       <c r="F2">
-        <v>293.57400000000001</v>
+        <v>125.099</v>
       </c>
       <c r="G2">
-        <v>1194.277</v>
+        <v>573.52099999999996</v>
       </c>
       <c r="H2">
-        <v>3213.288</v>
+        <v>955.61099999999999</v>
       </c>
       <c r="I2">
-        <v>14.36</v>
+        <v>95.506</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.504</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -769,81 +889,81 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-0.65500000000000003</v>
+        <v>-3.0830000000000002</v>
       </c>
       <c r="N2">
-        <v>785.08199999999999</v>
+        <v>362.43099999999998</v>
       </c>
       <c r="O2">
-        <v>1055.415</v>
+        <v>386.59399999999999</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>4.024</v>
       </c>
       <c r="Q2">
-        <v>-74.795000000000002</v>
+        <v>46.448</v>
       </c>
       <c r="R2">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2157.873</v>
+        <v>569.01700000000005</v>
       </c>
       <c r="U2">
-        <v>700.61199999999997</v>
+        <v>199.56800000000001</v>
       </c>
       <c r="V2">
-        <v>-39.633000000000003</v>
+        <v>14.741</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-13.188000000000001</v>
+        <v>-119.393</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-4.9080000000000004</v>
+        <v>169.97900000000001</v>
       </c>
       <c r="AA2">
-        <v>48.225999999999999</v>
+        <v>9.4649999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>81.114000000000004</v>
+        <v>12.49</v>
       </c>
       <c r="D3">
-        <v>393.67</v>
+        <v>163.524</v>
       </c>
       <c r="E3">
-        <v>210.06800000000001</v>
+        <v>132.291</v>
       </c>
       <c r="F3">
-        <v>322.55</v>
+        <v>132.56800000000001</v>
       </c>
       <c r="G3">
-        <v>1206.6220000000001</v>
+        <v>620.29100000000005</v>
       </c>
       <c r="H3">
-        <v>3209.4690000000001</v>
+        <v>982.42600000000004</v>
       </c>
       <c r="I3">
-        <v>15.898999999999999</v>
+        <v>104.70099999999999</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>807.83600000000001</v>
+        <v>405.27</v>
       </c>
       <c r="O3">
-        <v>1062.0709999999999</v>
+        <v>434.25700000000001</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.0779999999999998</v>
       </c>
       <c r="Q3">
-        <v>-6.58</v>
+        <v>-53.978000000000002</v>
       </c>
       <c r="R3">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2147.3980000000001</v>
+        <v>548.16899999999998</v>
       </c>
       <c r="U3">
-        <v>694.03200000000004</v>
+        <v>145.59</v>
       </c>
       <c r="V3">
-        <v>96.488</v>
+        <v>82.18</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-114.264</v>
+        <v>-26.693000000000001</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>19.120999999999999</v>
+        <v>-95.296000000000006</v>
       </c>
       <c r="AA3">
-        <v>81.114000000000004</v>
+        <v>12.49</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>52.082000000000001</v>
+        <v>14.449</v>
       </c>
       <c r="D4">
-        <v>386.79500000000002</v>
+        <v>176.11</v>
       </c>
       <c r="E4">
-        <v>175.386</v>
+        <v>131.721</v>
       </c>
       <c r="F4">
-        <v>315.43099999999998</v>
+        <v>143.38999999999999</v>
       </c>
       <c r="G4">
-        <v>1362.296</v>
+        <v>539.15300000000002</v>
       </c>
       <c r="H4">
-        <v>3368.6379999999999</v>
+        <v>894.03399999999999</v>
       </c>
       <c r="I4">
-        <v>11.627000000000001</v>
+        <v>120.98</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.123</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,75 +1058,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>982.09</v>
+        <v>408.95699999999999</v>
       </c>
       <c r="O4">
-        <v>1247.1310000000001</v>
+        <v>433.95800000000003</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="Q4">
-        <v>195.85400000000001</v>
+        <v>-11.086</v>
       </c>
       <c r="R4">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2121.5070000000001</v>
+        <v>460.07600000000002</v>
       </c>
       <c r="U4">
-        <v>889.88599999999997</v>
+        <v>134.50399999999999</v>
       </c>
       <c r="V4">
-        <v>310.435</v>
+        <v>26.440999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-92.299000000000007</v>
+        <v>-102.95</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-2.8109999999999999</v>
+        <v>84.911000000000001</v>
       </c>
       <c r="AA4">
-        <v>52.082000000000001</v>
+        <v>14.45</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>39.942</v>
+        <v>20.398</v>
       </c>
       <c r="D5">
-        <v>390.53399999999999</v>
+        <v>183.56200000000001</v>
       </c>
       <c r="E5">
-        <v>203.124</v>
+        <v>146.29400000000001</v>
       </c>
       <c r="F5">
-        <v>318.45699999999999</v>
+        <v>149.172</v>
       </c>
       <c r="G5">
-        <v>1338.0550000000001</v>
+        <v>791.38199999999995</v>
       </c>
       <c r="H5">
-        <v>3368.8440000000001</v>
+        <v>1128.9069999999999</v>
       </c>
       <c r="I5">
-        <v>6.9560000000000004</v>
+        <v>19.428999999999998</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1141,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1010.32</v>
+        <v>536.41999999999996</v>
       </c>
       <c r="O5">
-        <v>1267.5440000000001</v>
+        <v>643.25099999999998</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="Q5">
-        <v>-34.808999999999997</v>
+        <v>137.607</v>
       </c>
       <c r="R5">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="S5">
-        <v>6803</v>
+        <v>3223</v>
       </c>
       <c r="T5">
-        <v>2101.3000000000002</v>
+        <v>485.65600000000001</v>
       </c>
       <c r="U5">
-        <v>855.077</v>
+        <v>271.69600000000003</v>
       </c>
       <c r="V5">
-        <v>73.025999999999996</v>
+        <v>172.15799999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-57.868000000000002</v>
+        <v>16.350999999999999</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.024</v>
+        <v>-18.088000000000001</v>
       </c>
       <c r="AA5">
-        <v>39.942</v>
+        <v>20.398</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>56.694000000000003</v>
+        <v>14.052</v>
       </c>
       <c r="D6">
-        <v>425.49599999999998</v>
+        <v>175.54499999999999</v>
       </c>
       <c r="E6">
-        <v>213.76300000000001</v>
+        <v>146.33099999999999</v>
       </c>
       <c r="F6">
-        <v>349.03</v>
+        <v>140.35499999999999</v>
       </c>
       <c r="G6">
-        <v>1289.6500000000001</v>
+        <v>768.16700000000003</v>
       </c>
       <c r="H6">
-        <v>3299</v>
+        <v>1114.817</v>
       </c>
       <c r="I6">
-        <v>9.2539999999999996</v>
+        <v>105.608</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1101,84 +1221,84 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-1.081</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>863.82799999999997</v>
+        <v>457.74400000000003</v>
       </c>
       <c r="O6">
-        <v>1127.1949999999999</v>
+        <v>558.98699999999997</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="Q6">
-        <v>-43.738</v>
+        <v>-39.726999999999997</v>
       </c>
       <c r="R6">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2171.8049999999998</v>
+        <v>555.83000000000004</v>
       </c>
       <c r="U6">
-        <v>811.33900000000006</v>
+        <v>231.96899999999999</v>
       </c>
       <c r="V6">
-        <v>-39.317999999999998</v>
+        <v>-71.957999999999998</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>2.5000000000000001E-2</v>
+        <v>42.790999999999997</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>15.86</v>
+        <v>4.9550000000000001</v>
       </c>
       <c r="AA6">
-        <v>56.694000000000003</v>
+        <v>14.052</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>20.971</v>
+        <v>21.38</v>
       </c>
       <c r="D7">
-        <v>432.56099999999998</v>
+        <v>185.63800000000001</v>
       </c>
       <c r="E7">
-        <v>236.31399999999999</v>
+        <v>151.953</v>
       </c>
       <c r="F7">
-        <v>355.75400000000002</v>
+        <v>151.92400000000001</v>
       </c>
       <c r="G7">
-        <v>1173.5409999999999</v>
+        <v>867.09799999999996</v>
       </c>
       <c r="H7">
-        <v>3744.482</v>
+        <v>1196.289</v>
       </c>
       <c r="I7">
-        <v>12.853999999999999</v>
+        <v>108.741</v>
       </c>
       <c r="J7">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1073.2170000000001</v>
+        <v>492.33100000000002</v>
       </c>
       <c r="O7">
-        <v>1454.5060000000001</v>
+        <v>585.26800000000003</v>
       </c>
       <c r="P7">
-        <v>250</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="Q7">
-        <v>-14.744999999999999</v>
+        <v>251.601</v>
       </c>
       <c r="R7">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2289.9760000000001</v>
+        <v>611.02099999999996</v>
       </c>
       <c r="U7">
-        <v>796.59400000000005</v>
+        <v>483.57</v>
       </c>
       <c r="V7">
-        <v>126.774</v>
+        <v>62.328000000000003</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>298.11099999999999</v>
+        <v>33.603999999999999</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>132.09299999999999</v>
+        <v>167.00700000000001</v>
       </c>
       <c r="AA7">
-        <v>20.971</v>
+        <v>21.38</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>75.656000000000006</v>
+        <v>-137.589</v>
       </c>
       <c r="D8">
-        <v>443.74700000000001</v>
+        <v>236.095</v>
       </c>
       <c r="E8">
-        <v>210.929</v>
+        <v>233.15700000000001</v>
       </c>
       <c r="F8">
-        <v>365.11399999999998</v>
+        <v>201.77500000000001</v>
       </c>
       <c r="G8">
-        <v>1293.702</v>
+        <v>903.54600000000005</v>
       </c>
       <c r="H8">
-        <v>3869.2710000000002</v>
+        <v>2159.0050000000001</v>
       </c>
       <c r="I8">
-        <v>12.084</v>
+        <v>233.756</v>
       </c>
       <c r="J8">
-        <v>112.5</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1138.2149999999999</v>
+        <v>737.16899999999998</v>
       </c>
       <c r="O8">
-        <v>1478.171</v>
+        <v>850.73599999999999</v>
       </c>
       <c r="P8">
-        <v>142.5</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="Q8">
-        <v>167.173</v>
+        <v>-135.90899999999999</v>
       </c>
       <c r="R8">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2391.1</v>
+        <v>1308.269</v>
       </c>
       <c r="U8">
-        <v>963.76700000000005</v>
+        <v>347.661</v>
       </c>
       <c r="V8">
-        <v>295.68</v>
+        <v>-68.519000000000005</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-93.412999999999997</v>
+        <v>-14.573</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.50600000000000001</v>
+        <v>-35.563000000000002</v>
       </c>
       <c r="AA8">
-        <v>75.656000000000006</v>
+        <v>-137.589</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>29.081</v>
+        <v>-97.835999999999999</v>
       </c>
       <c r="D9">
-        <v>454.21300000000002</v>
+        <v>309.25599999999997</v>
       </c>
       <c r="E9">
-        <v>292.66800000000001</v>
+        <v>207.20599999999999</v>
       </c>
       <c r="F9">
-        <v>374.70100000000002</v>
+        <v>273.935</v>
       </c>
       <c r="G9">
-        <v>1140.6559999999999</v>
+        <v>929.31500000000005</v>
       </c>
       <c r="H9">
-        <v>4147.6559999999999</v>
+        <v>1978.7139999999999</v>
       </c>
       <c r="I9">
-        <v>29.855</v>
+        <v>18.638999999999999</v>
       </c>
       <c r="J9">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,78 +1473,78 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1252.6389999999999</v>
+        <v>777.36900000000003</v>
       </c>
       <c r="O9">
-        <v>1603.6849999999999</v>
+        <v>865.23299999999995</v>
       </c>
       <c r="P9">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>-263.38499999999999</v>
+        <v>-35.081000000000003</v>
       </c>
       <c r="R9">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="S9">
-        <v>8138</v>
+        <v>4254</v>
       </c>
       <c r="T9">
-        <v>2543.971</v>
+        <v>1113.481</v>
       </c>
       <c r="U9">
-        <v>700.38199999999995</v>
+        <v>312.58</v>
       </c>
       <c r="V9">
-        <v>102.932</v>
+        <v>-102.9</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>38.765000000000001</v>
+        <v>-113.631</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>21.358000000000001</v>
       </c>
       <c r="AA9">
-        <v>29.081</v>
+        <v>-97.835999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>69.921999999999997</v>
+        <v>34.384999999999998</v>
       </c>
       <c r="D10">
-        <v>475.137</v>
+        <v>268.13600000000002</v>
       </c>
       <c r="E10">
-        <v>270.21699999999998</v>
+        <v>220.57300000000001</v>
       </c>
       <c r="F10">
-        <v>390.59</v>
+        <v>230.744</v>
       </c>
       <c r="G10">
-        <v>999.78200000000004</v>
+        <v>1007.548</v>
       </c>
       <c r="H10">
-        <v>4020.5459999999998</v>
+        <v>2018.0150000000001</v>
       </c>
       <c r="I10">
-        <v>14.288</v>
+        <v>194.64099999999999</v>
       </c>
       <c r="J10">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1433,81 +1553,81 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-8.0280000000000005</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1022.0119999999999</v>
+        <v>742.41300000000001</v>
       </c>
       <c r="O10">
-        <v>1418.3869999999999</v>
+        <v>829.12800000000004</v>
       </c>
       <c r="P10">
-        <v>127.5</v>
+        <v>7.8E-2</v>
       </c>
       <c r="Q10">
-        <v>-150.017</v>
+        <v>34.759</v>
       </c>
       <c r="R10">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2602.1590000000001</v>
+        <v>1188.8869999999999</v>
       </c>
       <c r="U10">
-        <v>550.36500000000001</v>
+        <v>347.339</v>
       </c>
       <c r="V10">
-        <v>-91.438000000000002</v>
+        <v>31.462</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-36.417000000000002</v>
+        <v>25.152999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-9.0419999999999998</v>
       </c>
       <c r="AA10">
-        <v>69.921999999999997</v>
+        <v>34.384999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>68.691000000000003</v>
+        <v>22.289000000000001</v>
       </c>
       <c r="D11">
-        <v>499.25700000000001</v>
+        <v>292.02800000000002</v>
       </c>
       <c r="E11">
-        <v>251.68199999999999</v>
+        <v>246.006</v>
       </c>
       <c r="F11">
-        <v>417.92200000000003</v>
+        <v>256.96100000000001</v>
       </c>
       <c r="G11">
-        <v>1106.3689999999999</v>
+        <v>930.36500000000001</v>
       </c>
       <c r="H11">
-        <v>4098.8879999999999</v>
+        <v>2064.3519999999999</v>
       </c>
       <c r="I11">
-        <v>23.541</v>
+        <v>168.51599999999999</v>
       </c>
       <c r="J11">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1012.922</v>
+        <v>767.51300000000003</v>
       </c>
       <c r="O11">
-        <v>1399.9559999999999</v>
+        <v>865.51199999999994</v>
       </c>
       <c r="P11">
-        <v>120</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q11">
-        <v>130.65299999999999</v>
+        <v>-78.516999999999996</v>
       </c>
       <c r="R11">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2698.9319999999998</v>
+        <v>1198.8399999999999</v>
       </c>
       <c r="U11">
-        <v>681.01800000000003</v>
+        <v>268.822</v>
       </c>
       <c r="V11">
-        <v>133.72999999999999</v>
+        <v>116.601</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>15.457000000000001</v>
+        <v>-29.529</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.222</v>
+        <v>6.0259999999999998</v>
       </c>
       <c r="AA11">
-        <v>68.691000000000003</v>
+        <v>22.289000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>52.296999999999997</v>
+        <v>48.475000000000001</v>
       </c>
       <c r="D12">
-        <v>482.94499999999999</v>
+        <v>300.36599999999999</v>
       </c>
       <c r="E12">
-        <v>278.87799999999999</v>
+        <v>201.80199999999999</v>
       </c>
       <c r="F12">
-        <v>393.83499999999998</v>
+        <v>266.06400000000002</v>
       </c>
       <c r="G12">
-        <v>1330.0840000000001</v>
+        <v>1074.009</v>
       </c>
       <c r="H12">
-        <v>4288.4719999999998</v>
+        <v>2169.25</v>
       </c>
       <c r="I12">
-        <v>16.187999999999999</v>
+        <v>181.607</v>
       </c>
       <c r="J12">
-        <v>82.5</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1171.682</v>
+        <v>785.96199999999999</v>
       </c>
       <c r="O12">
-        <v>1552.3420000000001</v>
+        <v>871.50800000000004</v>
       </c>
       <c r="P12">
-        <v>112.5</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="Q12">
-        <v>211.352</v>
+        <v>157.46199999999999</v>
       </c>
       <c r="R12">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2736.13</v>
+        <v>1297.742</v>
       </c>
       <c r="U12">
-        <v>892.37</v>
+        <v>426.28399999999999</v>
       </c>
       <c r="V12">
-        <v>263.07799999999997</v>
+        <v>125.253</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-31.27</v>
+        <v>57.414000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-5.048</v>
       </c>
       <c r="AA12">
-        <v>52.296999999999997</v>
+        <v>48.475000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>56.89</v>
+        <v>44.575000000000003</v>
       </c>
       <c r="D13">
-        <v>504.875</v>
+        <v>316.45299999999997</v>
       </c>
       <c r="E13">
-        <v>256.02600000000001</v>
+        <v>200.99799999999999</v>
       </c>
       <c r="F13">
-        <v>410.61900000000003</v>
+        <v>279.48899999999998</v>
       </c>
       <c r="G13">
-        <v>1447.9770000000001</v>
+        <v>1239.2059999999999</v>
       </c>
       <c r="H13">
-        <v>4358.9350000000004</v>
+        <v>2307.3530000000001</v>
       </c>
       <c r="I13">
-        <v>8.5749999999999993</v>
+        <v>11.775</v>
       </c>
       <c r="J13">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1222.9190000000001</v>
+        <v>804.95899999999995</v>
       </c>
       <c r="O13">
-        <v>1570.6579999999999</v>
+        <v>873.94299999999998</v>
       </c>
       <c r="P13">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>130.071</v>
+        <v>98.024000000000001</v>
       </c>
       <c r="R13">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="S13">
-        <v>8573</v>
+        <v>4362</v>
       </c>
       <c r="T13">
-        <v>2788.277</v>
+        <v>1433.41</v>
       </c>
       <c r="U13">
-        <v>1022.441</v>
+        <v>524.30799999999999</v>
       </c>
       <c r="V13">
-        <v>191.33500000000001</v>
+        <v>118.218</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-45.755000000000003</v>
+        <v>21.143999999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.76700000000000002</v>
+        <v>-29.756</v>
       </c>
       <c r="AA13">
-        <v>56.89</v>
+        <v>44.575000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>67.695999999999998</v>
+        <v>32.152000000000001</v>
       </c>
       <c r="D14">
-        <v>478.95100000000002</v>
+        <v>285.26400000000001</v>
       </c>
       <c r="E14">
-        <v>246.774</v>
+        <v>194.386</v>
       </c>
       <c r="F14">
-        <v>395.85500000000002</v>
+        <v>249.38200000000001</v>
       </c>
       <c r="G14">
-        <v>1320.865</v>
+        <v>1184.7829999999999</v>
       </c>
       <c r="H14">
-        <v>4192.1559999999999</v>
+        <v>2231.4110000000001</v>
       </c>
       <c r="I14">
-        <v>8.0839999999999996</v>
+        <v>149.38800000000001</v>
       </c>
       <c r="J14">
-        <v>67.5</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1885,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-7.7480000000000002</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1036.703</v>
+        <v>744.82600000000002</v>
       </c>
       <c r="O14">
-        <v>1368.941</v>
+        <v>818.67499999999995</v>
       </c>
       <c r="P14">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>-129.38800000000001</v>
+        <v>-111.58</v>
       </c>
       <c r="R14">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>2823.2150000000001</v>
+        <v>1412.7360000000001</v>
       </c>
       <c r="U14">
-        <v>893.053</v>
+        <v>412.72800000000001</v>
       </c>
       <c r="V14">
-        <v>-73.891999999999996</v>
+        <v>11.319000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-41.024999999999999</v>
+        <v>-74.802000000000007</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>6.7910000000000004</v>
+        <v>-32.055</v>
       </c>
       <c r="AA14">
-        <v>67.695999999999998</v>
+        <v>32.152000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>63.317</v>
+        <v>28.739000000000001</v>
       </c>
       <c r="D15">
-        <v>517.697</v>
+        <v>294.60399999999998</v>
       </c>
       <c r="E15">
-        <v>322.60599999999999</v>
+        <v>220.85400000000001</v>
       </c>
       <c r="F15">
-        <v>429.286</v>
+        <v>255.42099999999999</v>
       </c>
       <c r="G15">
-        <v>1328.271</v>
+        <v>1166.298</v>
       </c>
       <c r="H15">
-        <v>4560.5360000000001</v>
+        <v>2238.473</v>
       </c>
       <c r="I15">
-        <v>13.381</v>
+        <v>157.733</v>
       </c>
       <c r="J15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1304.732</v>
+        <v>769.70399999999995</v>
       </c>
       <c r="O15">
-        <v>1641.4169999999999</v>
+        <v>842.58699999999999</v>
       </c>
       <c r="P15">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-71.42</v>
+        <v>43.395000000000003</v>
       </c>
       <c r="R15">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2919.1190000000001</v>
+        <v>1395.886</v>
       </c>
       <c r="U15">
-        <v>821.63300000000004</v>
+        <v>456.12299999999999</v>
       </c>
       <c r="V15">
-        <v>111.803</v>
+        <v>90.397999999999996</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>198.40100000000001</v>
+        <v>-45.54</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.51300000000000001</v>
+        <v>48.314999999999998</v>
       </c>
       <c r="AA15">
-        <v>63.317</v>
+        <v>28.739000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>65.656000000000006</v>
+        <v>41.828000000000003</v>
       </c>
       <c r="D16">
-        <v>521.81200000000001</v>
+        <v>281.68099999999998</v>
       </c>
       <c r="E16">
-        <v>238.863</v>
+        <v>143.006</v>
       </c>
       <c r="F16">
-        <v>432.55399999999997</v>
+        <v>242.92500000000001</v>
       </c>
       <c r="G16">
-        <v>1314.7829999999999</v>
+        <v>1164.761</v>
       </c>
       <c r="H16">
-        <v>4544.9290000000001</v>
+        <v>2221.556</v>
       </c>
       <c r="I16">
-        <v>14.624000000000001</v>
+        <v>159.40700000000001</v>
       </c>
       <c r="J16">
-        <v>52.5</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1227.2840000000001</v>
+        <v>727.27800000000002</v>
       </c>
       <c r="O16">
-        <v>1548.876</v>
+        <v>808.01400000000001</v>
       </c>
       <c r="P16">
-        <v>82.5</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>81.412999999999997</v>
+        <v>43.110999999999997</v>
       </c>
       <c r="R16">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2996.0529999999999</v>
+        <v>1413.5419999999999</v>
       </c>
       <c r="U16">
-        <v>903.04600000000005</v>
+        <v>499.23399999999998</v>
       </c>
       <c r="V16">
-        <v>340.13</v>
+        <v>128.75299999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-220.03399999999999</v>
+        <v>-26.102</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>8.9999999999999993E-3</v>
+        <v>-48.003999999999998</v>
       </c>
       <c r="AA16">
-        <v>65.656000000000006</v>
+        <v>41.828000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>62.454999999999998</v>
+        <v>-28.382000000000001</v>
       </c>
       <c r="D17">
-        <v>539.01199999999994</v>
+        <v>230.55500000000001</v>
       </c>
       <c r="E17">
-        <v>326.72699999999998</v>
+        <v>132.25800000000001</v>
       </c>
       <c r="F17">
-        <v>444.20299999999997</v>
+        <v>190.37200000000001</v>
       </c>
       <c r="G17">
-        <v>1504.7349999999999</v>
+        <v>913.03300000000002</v>
       </c>
       <c r="H17">
-        <v>4775.4989999999998</v>
+        <v>2092.1869999999999</v>
       </c>
       <c r="I17">
-        <v>28.152000000000001</v>
+        <v>12.278</v>
       </c>
       <c r="J17">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2137,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1386.759</v>
+        <v>741.15499999999997</v>
       </c>
       <c r="O17">
-        <v>1719.329</v>
+        <v>827.13800000000003</v>
       </c>
       <c r="P17">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>82.715999999999994</v>
+        <v>-152.52500000000001</v>
       </c>
       <c r="R17">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="S17">
-        <v>9436</v>
+        <v>4378</v>
       </c>
       <c r="T17">
-        <v>3056.17</v>
+        <v>1265.049</v>
       </c>
       <c r="U17">
-        <v>985.76199999999994</v>
+        <v>346.709</v>
       </c>
       <c r="V17">
-        <v>172.91200000000001</v>
+        <v>33.567</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-11.031000000000001</v>
+        <v>-120.143</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0.46100000000000002</v>
+        <v>-32.406999999999996</v>
       </c>
       <c r="AA17">
-        <v>62.454999999999998</v>
+        <v>-28.382000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>65.188999999999993</v>
+        <v>-14.324999999999999</v>
       </c>
       <c r="D18">
-        <v>542.04300000000001</v>
+        <v>241.304</v>
       </c>
       <c r="E18">
-        <v>283.00700000000001</v>
+        <v>108.02800000000001</v>
       </c>
       <c r="F18">
-        <v>443.27600000000001</v>
+        <v>199.36099999999999</v>
       </c>
       <c r="G18">
-        <v>1416.2729999999999</v>
+        <v>892.39200000000005</v>
       </c>
       <c r="H18">
-        <v>4662.3490000000002</v>
+        <v>2145.1219999999998</v>
       </c>
       <c r="I18">
-        <v>28.24</v>
+        <v>166.53200000000001</v>
       </c>
       <c r="J18">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,84 +2217,84 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-22.722999999999999</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1343.104</v>
+        <v>845.24099999999999</v>
       </c>
       <c r="O18">
-        <v>1725.328</v>
+        <v>934.79100000000005</v>
       </c>
       <c r="P18">
-        <v>302.5</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>-188.93799999999999</v>
+        <v>29.658000000000001</v>
       </c>
       <c r="R18">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>2937.0210000000002</v>
+        <v>1210.3309999999999</v>
       </c>
       <c r="U18">
-        <v>796.82399999999996</v>
+        <v>376.36700000000002</v>
       </c>
       <c r="V18">
-        <v>-87.343000000000004</v>
+        <v>142.07499999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>57.805</v>
+        <v>-37.892000000000003</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-120.41500000000001</v>
+        <v>25.576000000000001</v>
       </c>
       <c r="AA18">
-        <v>65.188999999999993</v>
+        <v>-14.324999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>55.595999999999997</v>
+        <v>-4.9720000000000004</v>
       </c>
       <c r="D19">
-        <v>557.20399999999995</v>
+        <v>244.339</v>
       </c>
       <c r="E19">
-        <v>338.40699999999998</v>
+        <v>134.80799999999999</v>
       </c>
       <c r="F19">
-        <v>457.84399999999999</v>
+        <v>202.648</v>
       </c>
       <c r="G19">
-        <v>1544.9749999999999</v>
+        <v>866.12699999999995</v>
       </c>
       <c r="H19">
-        <v>4756.1670000000004</v>
+        <v>2102.297</v>
       </c>
       <c r="I19">
-        <v>26.86</v>
+        <v>185.33799999999999</v>
       </c>
       <c r="J19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1325.038</v>
+        <v>842.16399999999999</v>
       </c>
       <c r="O19">
-        <v>1691.1690000000001</v>
+        <v>930.06600000000003</v>
       </c>
       <c r="P19">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>72.021000000000001</v>
+        <v>-33.238</v>
       </c>
       <c r="R19">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3064.998</v>
+        <v>1172.231</v>
       </c>
       <c r="U19">
-        <v>868.84500000000003</v>
+        <v>343.12900000000002</v>
       </c>
       <c r="V19">
-        <v>155.07900000000001</v>
+        <v>-11.467000000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-39.338999999999999</v>
+        <v>-30.039000000000001</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-16.608000000000001</v>
+        <v>24.814</v>
       </c>
       <c r="AA19">
-        <v>55.595999999999997</v>
+        <v>-4.9720000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>55.387</v>
+        <v>17.294</v>
       </c>
       <c r="D20">
-        <v>555.80499999999995</v>
+        <v>251.45</v>
       </c>
       <c r="E20">
-        <v>307.82499999999999</v>
+        <v>108.673</v>
       </c>
       <c r="F20">
-        <v>453.03800000000001</v>
+        <v>208.256</v>
       </c>
       <c r="G20">
-        <v>1627.537</v>
+        <v>801.803</v>
       </c>
       <c r="H20">
-        <v>4953.9719999999998</v>
+        <v>2122.4630000000002</v>
       </c>
       <c r="I20">
-        <v>18.690000000000001</v>
+        <v>211.40100000000001</v>
       </c>
       <c r="J20">
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1459.3430000000001</v>
+        <v>824.16399999999999</v>
       </c>
       <c r="O20">
-        <v>1815.7239999999999</v>
+        <v>920.28899999999999</v>
       </c>
       <c r="P20">
-        <v>212.5</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>117.578</v>
+        <v>-23.175000000000001</v>
       </c>
       <c r="R20">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3138.248</v>
+        <v>1202.174</v>
       </c>
       <c r="U20">
-        <v>986.423</v>
+        <v>319.95400000000001</v>
       </c>
       <c r="V20">
-        <v>275.00700000000001</v>
+        <v>64.247</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-5.0919999999999996</v>
+        <v>3.9670000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-0.224</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="AA20">
-        <v>55.387</v>
+        <v>17.294</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>49.762</v>
+        <v>-15.111000000000001</v>
       </c>
       <c r="D21">
-        <v>587.15899999999999</v>
+        <v>254.83799999999999</v>
       </c>
       <c r="E21">
-        <v>385.69400000000002</v>
+        <v>100.178</v>
       </c>
       <c r="F21">
-        <v>479.178</v>
+        <v>208.67699999999999</v>
       </c>
       <c r="G21">
-        <v>1468.807</v>
+        <v>947.47900000000004</v>
       </c>
       <c r="H21">
-        <v>5045.7389999999996</v>
+        <v>2133.424</v>
       </c>
       <c r="I21">
-        <v>9.9190000000000005</v>
+        <v>12.055999999999999</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,164 +2469,164 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1578.3530000000001</v>
+        <v>816.92700000000002</v>
       </c>
       <c r="O21">
-        <v>1911.75</v>
+        <v>922.78700000000003</v>
       </c>
       <c r="P21">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-150.23500000000001</v>
+        <v>84.481999999999999</v>
       </c>
       <c r="R21">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="S21">
-        <v>10284</v>
+        <v>4756</v>
       </c>
       <c r="T21">
-        <v>3133.989</v>
+        <v>1210.6369999999999</v>
       </c>
       <c r="U21">
-        <v>836.18799999999999</v>
+        <v>404.43599999999998</v>
       </c>
       <c r="V21">
-        <v>152.417</v>
+        <v>74.334999999999994</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-75.444000000000003</v>
+        <v>24.193000000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>7.5179999999999998</v>
+        <v>-2.6219999999999999</v>
       </c>
       <c r="AA21">
-        <v>49.762</v>
+        <v>-15.111000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>60.034999999999997</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="D22">
-        <v>568.60400000000004</v>
+        <v>260.18900000000002</v>
       </c>
       <c r="E22">
-        <v>354.76600000000002</v>
+        <v>83.997</v>
       </c>
       <c r="F22">
-        <v>469.68599999999998</v>
+        <v>213.559</v>
       </c>
       <c r="G22">
-        <v>1200.528</v>
+        <v>868.42399999999998</v>
       </c>
       <c r="H22">
-        <v>4747.5230000000001</v>
+        <v>2070.0309999999999</v>
       </c>
       <c r="I22">
-        <v>20.16</v>
+        <v>9.4</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1433.2819999999999</v>
+        <v>794.21400000000006</v>
       </c>
       <c r="O22">
-        <v>1757.14</v>
+        <v>900.17399999999998</v>
       </c>
       <c r="P22">
-        <v>227.5</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>-253.202</v>
+        <v>-89.938000000000002</v>
       </c>
       <c r="R22">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>2990.3829999999998</v>
+        <v>1169.857</v>
       </c>
       <c r="U22">
-        <v>582.98599999999999</v>
+        <v>314.49799999999999</v>
       </c>
       <c r="V22">
-        <v>-35.17</v>
+        <v>19.709</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-182.255</v>
+        <v>-70.549000000000007</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>5.7169999999999996</v>
+        <v>-19.228999999999999</v>
       </c>
       <c r="AA22">
-        <v>60.034999999999997</v>
+        <v>1.6970000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>69.376000000000005</v>
+        <v>5.375</v>
       </c>
       <c r="D23">
-        <v>605.005</v>
+        <v>274.779</v>
       </c>
       <c r="E23">
-        <v>299.07600000000002</v>
+        <v>138.32499999999999</v>
       </c>
       <c r="F23">
-        <v>497.93</v>
+        <v>225.29300000000001</v>
       </c>
       <c r="G23">
-        <v>1403.1969999999999</v>
+        <v>940.43700000000001</v>
       </c>
       <c r="H23">
-        <v>4965.2629999999999</v>
+        <v>2131.7600000000002</v>
       </c>
       <c r="I23">
-        <v>30.088999999999999</v>
+        <v>12.865</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1485.212</v>
+        <v>818.68700000000001</v>
       </c>
       <c r="O23">
-        <v>1815.258</v>
+        <v>933.28499999999997</v>
       </c>
       <c r="P23">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>244.96</v>
+        <v>-19.567</v>
       </c>
       <c r="R23">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3150.0050000000001</v>
+        <v>1198.4749999999999</v>
       </c>
       <c r="U23">
-        <v>827.94600000000003</v>
+        <v>294.93099999999998</v>
       </c>
       <c r="V23">
-        <v>222.434</v>
+        <v>26.969000000000001</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>63.488</v>
+        <v>9.9510000000000005</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-7.4409999999999998</v>
+        <v>-40.301000000000002</v>
       </c>
       <c r="AA23">
-        <v>69.376000000000005</v>
+        <v>5.375</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>64.718000000000004</v>
+        <v>7.55</v>
       </c>
       <c r="D24">
-        <v>615.20399999999995</v>
+        <v>277.20800000000003</v>
       </c>
       <c r="E24">
-        <v>317.06700000000001</v>
+        <v>110.875</v>
       </c>
       <c r="F24">
-        <v>499.99</v>
+        <v>228.34200000000001</v>
       </c>
       <c r="G24">
-        <v>1552.038</v>
+        <v>781.22500000000002</v>
       </c>
       <c r="H24">
-        <v>5108.7889999999998</v>
+        <v>2065.3809999999999</v>
       </c>
       <c r="I24">
-        <v>26.216000000000001</v>
+        <v>14.483000000000001</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1663.596</v>
+        <v>787.85900000000004</v>
       </c>
       <c r="O24">
-        <v>1988.0429999999999</v>
+        <v>908.84199999999998</v>
       </c>
       <c r="P24">
-        <v>277.5</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>118.371</v>
+        <v>-25.213999999999999</v>
       </c>
       <c r="R24">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3120.7460000000001</v>
+        <v>1156.539</v>
       </c>
       <c r="U24">
-        <v>946.31700000000001</v>
+        <v>269.71699999999998</v>
       </c>
       <c r="V24">
-        <v>251.709</v>
+        <v>59.465000000000003</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-86.853999999999999</v>
+        <v>-65.807000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-12.631</v>
+        <v>-1.5760000000000001</v>
       </c>
       <c r="AA24">
-        <v>64.718000000000004</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>72.697000000000003</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="D25">
-        <v>633.71900000000005</v>
+        <v>283.38400000000001</v>
       </c>
       <c r="E25">
-        <v>438.87299999999999</v>
+        <v>122.584</v>
       </c>
       <c r="F25">
-        <v>514.08199999999999</v>
+        <v>233.34399999999999</v>
       </c>
       <c r="G25">
-        <v>1716.9380000000001</v>
+        <v>894.49</v>
       </c>
       <c r="H25">
-        <v>5240.3649999999998</v>
+        <v>2157.8220000000001</v>
       </c>
       <c r="I25">
-        <v>13.744999999999999</v>
+        <v>15.005000000000001</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,164 +2801,164 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1714.9459999999999</v>
+        <v>871.096</v>
       </c>
       <c r="O25">
-        <v>2045.2190000000001</v>
+        <v>994.65499999999997</v>
       </c>
       <c r="P25">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>30.303000000000001</v>
+        <v>61.042000000000002</v>
       </c>
       <c r="R25">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="S25">
-        <v>10669</v>
+        <v>5130</v>
       </c>
       <c r="T25">
-        <v>3195.1460000000002</v>
+        <v>1163.1669999999999</v>
       </c>
       <c r="U25">
-        <v>976.62</v>
+        <v>330.75900000000001</v>
       </c>
       <c r="V25">
-        <v>147.66200000000001</v>
+        <v>99.747</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-101.316</v>
+        <v>-4.0209999999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>2.7759999999999998</v>
+        <v>-0.122</v>
       </c>
       <c r="AA25">
-        <v>72.697000000000003</v>
+        <v>10.119999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>86.587999999999994</v>
+        <v>23.356999999999999</v>
       </c>
       <c r="D26">
-        <v>652.78599999999994</v>
+        <v>300.20999999999998</v>
       </c>
       <c r="E26">
-        <v>331.98399999999998</v>
+        <v>141.08099999999999</v>
       </c>
       <c r="F26">
-        <v>518.51199999999994</v>
+        <v>248.54400000000001</v>
       </c>
       <c r="G26">
-        <v>1484.0429999999999</v>
+        <v>1023.991</v>
       </c>
       <c r="H26">
-        <v>5264.2539999999999</v>
+        <v>2275.7640000000001</v>
       </c>
       <c r="I26">
-        <v>23.815999999999999</v>
+        <v>6.8079999999999998</v>
       </c>
       <c r="J26">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>170.04</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>1456.5550000000001</v>
+        <v>874.95799999999997</v>
       </c>
       <c r="O26">
-        <v>1939.569</v>
+        <v>1007.904</v>
       </c>
       <c r="P26">
-        <v>319.54000000000002</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-148.911</v>
+        <v>46.396999999999998</v>
       </c>
       <c r="R26">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>3324.6849999999999</v>
+        <v>1267.8599999999999</v>
       </c>
       <c r="U26">
-        <v>827.70899999999995</v>
+        <v>377.15600000000001</v>
       </c>
       <c r="V26">
-        <v>46.881999999999998</v>
+        <v>56.064999999999998</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>15.877000000000001</v>
+        <v>63.512999999999998</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>1.946</v>
+        <v>-61.031999999999996</v>
       </c>
       <c r="AA26">
-        <v>86.587999999999994</v>
+        <v>23.356999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>53.305999999999997</v>
+        <v>41.265000000000001</v>
       </c>
       <c r="D27">
-        <v>680.06899999999996</v>
+        <v>292.928</v>
       </c>
       <c r="E27">
-        <v>373.77</v>
+        <v>166.85</v>
       </c>
       <c r="F27">
-        <v>537.67499999999995</v>
+        <v>242.721</v>
       </c>
       <c r="G27">
-        <v>1682.0119999999999</v>
+        <v>1121.097</v>
       </c>
       <c r="H27">
-        <v>5466.558</v>
+        <v>2351.0039999999999</v>
       </c>
       <c r="I27">
-        <v>33.537999999999997</v>
+        <v>6.5949999999999998</v>
       </c>
       <c r="J27">
-        <v>139.68799999999999</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1593.347</v>
+        <v>897.44299999999998</v>
       </c>
       <c r="O27">
-        <v>2089.0630000000001</v>
+        <v>1037.3800000000001</v>
       </c>
       <c r="P27">
-        <v>417.68900000000002</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>163.61600000000001</v>
+        <v>83.918000000000006</v>
       </c>
       <c r="R27">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3377.4949999999999</v>
+        <v>1313.624</v>
       </c>
       <c r="U27">
-        <v>991.32500000000005</v>
+        <v>461.07400000000001</v>
       </c>
       <c r="V27">
-        <v>122.97499999999999</v>
+        <v>88.165999999999997</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>50.962000000000003</v>
+        <v>-14.667</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-1.6160000000000001</v>
+        <v>-4.399</v>
       </c>
       <c r="AA27">
-        <v>53.305999999999997</v>
+        <v>41.265000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>116.751</v>
+        <v>24.855</v>
       </c>
       <c r="D28">
-        <v>695.38099999999997</v>
+        <v>304.09800000000001</v>
       </c>
       <c r="E28">
-        <v>411.262</v>
+        <v>204.78700000000001</v>
       </c>
       <c r="F28">
-        <v>544.44899999999996</v>
+        <v>251.24299999999999</v>
       </c>
       <c r="G28">
-        <v>1894.6320000000001</v>
+        <v>1206.4670000000001</v>
       </c>
       <c r="H28">
-        <v>5678.9390000000003</v>
+        <v>2455.0459999999998</v>
       </c>
       <c r="I28">
-        <v>19.873000000000001</v>
+        <v>8.3030000000000008</v>
       </c>
       <c r="J28">
-        <v>137.81299999999999</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1764.3979999999999</v>
+        <v>989.01599999999996</v>
       </c>
       <c r="O28">
-        <v>2255.7710000000002</v>
+        <v>1137.0909999999999</v>
       </c>
       <c r="P28">
-        <v>435.83800000000002</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>163.661</v>
+        <v>-25.22</v>
       </c>
       <c r="R28">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3423.1680000000001</v>
+        <v>1317.9549999999999</v>
       </c>
       <c r="U28">
-        <v>1154.9860000000001</v>
+        <v>435.85399999999998</v>
       </c>
       <c r="V28">
-        <v>279.85399999999998</v>
+        <v>116.101</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-92.728999999999999</v>
+        <v>-37.981999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-6.4480000000000004</v>
+        <v>-58.441000000000003</v>
       </c>
       <c r="AA28">
-        <v>116.751</v>
+        <v>24.855</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-120.08199999999999</v>
+        <v>41.014000000000003</v>
       </c>
       <c r="D29">
-        <v>696.64400000000001</v>
+        <v>315.233</v>
       </c>
       <c r="E29">
-        <v>451.14400000000001</v>
+        <v>123.9</v>
       </c>
       <c r="F29">
-        <v>546.16899999999998</v>
+        <v>259.18299999999999</v>
       </c>
       <c r="G29">
-        <v>1682.5930000000001</v>
+        <v>1327.539</v>
       </c>
       <c r="H29">
-        <v>5396.4139999999998</v>
+        <v>2617.337</v>
       </c>
       <c r="I29">
-        <v>19.954000000000001</v>
+        <v>11.611000000000001</v>
       </c>
       <c r="J29">
-        <v>134.06299999999999</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,164 +3133,164 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1614.1089999999999</v>
+        <v>1031.076</v>
       </c>
       <c r="O29">
-        <v>2116.69</v>
+        <v>1180.944</v>
       </c>
       <c r="P29">
-        <v>143.98699999999999</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>-106.63</v>
+        <v>143.47300000000001</v>
       </c>
       <c r="R29">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="S29">
-        <v>11686</v>
+        <v>5196</v>
       </c>
       <c r="T29">
-        <v>3279.7240000000002</v>
+        <v>1436.393</v>
       </c>
       <c r="U29">
-        <v>1048.356</v>
+        <v>579.327</v>
       </c>
       <c r="V29">
-        <v>184.85400000000001</v>
+        <v>173.14599999999999</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-347.23</v>
+        <v>46</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>147.49199999999999</v>
+        <v>-43.232999999999997</v>
       </c>
       <c r="AA29">
-        <v>-120.08199999999999</v>
+        <v>41.014000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-3.6909999999999998</v>
+        <v>46.445</v>
       </c>
       <c r="D30">
-        <v>769.42600000000004</v>
+        <v>315.46499999999997</v>
       </c>
       <c r="E30">
-        <v>499.37299999999999</v>
+        <v>142.054</v>
       </c>
       <c r="F30">
-        <v>607.27800000000002</v>
+        <v>259.18799999999999</v>
       </c>
       <c r="G30">
-        <v>1332.346</v>
+        <v>1221.502</v>
       </c>
       <c r="H30">
-        <v>5717.549</v>
+        <v>2464.8710000000001</v>
       </c>
       <c r="I30">
-        <v>42.097000000000001</v>
+        <v>6.9640000000000004</v>
       </c>
       <c r="J30">
-        <v>131.25</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>-21.875</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>1950.414</v>
+        <v>710.55499999999995</v>
       </c>
       <c r="O30">
-        <v>2576.9160000000002</v>
+        <v>1024.9449999999999</v>
       </c>
       <c r="P30">
-        <v>572.13499999999999</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>-442.15300000000002</v>
+        <v>-151.27199999999999</v>
       </c>
       <c r="R30">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>3140.6329999999998</v>
+        <v>1439.9259999999999</v>
       </c>
       <c r="U30">
-        <v>605.89200000000005</v>
+        <v>428.05500000000001</v>
       </c>
       <c r="V30">
-        <v>-59.054000000000002</v>
+        <v>-51.180999999999997</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>230.364</v>
+        <v>-70.768000000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>12.449</v>
+        <v>-24.652000000000001</v>
       </c>
       <c r="AA30">
-        <v>-3.6909999999999998</v>
+        <v>46.445</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>102.47199999999999</v>
+        <v>39.387</v>
       </c>
       <c r="D31">
-        <v>776.83600000000001</v>
+        <v>324.553</v>
       </c>
       <c r="E31">
-        <v>568.43399999999997</v>
+        <v>171.99299999999999</v>
       </c>
       <c r="F31">
-        <v>618.50699999999995</v>
+        <v>266.67700000000002</v>
       </c>
       <c r="G31">
-        <v>1370.1859999999999</v>
+        <v>1216.8969999999999</v>
       </c>
       <c r="H31">
-        <v>5699.0709999999999</v>
+        <v>2430.1590000000001</v>
       </c>
       <c r="I31">
-        <v>43.478999999999999</v>
+        <v>8.5060000000000002</v>
       </c>
       <c r="J31">
-        <v>127.5</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>385</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,81 +3299,81 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1881.922</v>
+        <v>709.10400000000004</v>
       </c>
       <c r="O31">
-        <v>2438.674</v>
+        <v>995.33299999999997</v>
       </c>
       <c r="P31">
-        <v>524.34699999999998</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>-35.152000000000001</v>
+        <v>146.834</v>
       </c>
       <c r="R31">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3260.3969999999999</v>
+        <v>1434.826</v>
       </c>
       <c r="U31">
-        <v>570.80100000000004</v>
+        <v>574.88900000000001</v>
       </c>
       <c r="V31">
-        <v>63.369</v>
+        <v>35.037999999999997</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-37.959000000000003</v>
+        <v>-63.786999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>183.517</v>
       </c>
       <c r="AA31">
-        <v>102.47199999999999</v>
+        <v>39.387</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>79.409000000000006</v>
+        <v>57.749000000000002</v>
       </c>
       <c r="D32">
-        <v>779.71400000000006</v>
+        <v>344.12799999999999</v>
       </c>
       <c r="E32">
-        <v>501.33100000000002</v>
+        <v>143.613</v>
       </c>
       <c r="F32">
-        <v>614.48699999999997</v>
+        <v>283.36399999999998</v>
       </c>
       <c r="G32">
-        <v>1465.5830000000001</v>
+        <v>1254.171</v>
       </c>
       <c r="H32">
-        <v>5795.2150000000001</v>
+        <v>2658.857</v>
       </c>
       <c r="I32">
-        <v>49.472999999999999</v>
+        <v>12.145</v>
       </c>
       <c r="J32">
-        <v>123.75</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2083.4050000000002</v>
+        <v>846.09699999999998</v>
       </c>
       <c r="O32">
-        <v>2631.2130000000002</v>
+        <v>1128.453</v>
       </c>
       <c r="P32">
-        <v>621.55799999999999</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>170.39500000000001</v>
+        <v>-29.4</v>
       </c>
       <c r="R32">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3164.002</v>
+        <v>1530.404</v>
       </c>
       <c r="U32">
-        <v>741.23599999999999</v>
+        <v>545.48900000000003</v>
       </c>
       <c r="V32">
-        <v>289.166</v>
+        <v>231.346</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-83.06</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>-0.151</v>
+        <v>-89.828999999999994</v>
       </c>
       <c r="AA32">
-        <v>79.409000000000006</v>
+        <v>57.749000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>254.328</v>
+        <v>46.396999999999998</v>
       </c>
       <c r="D33">
-        <v>795.08199999999999</v>
+        <v>352.80500000000001</v>
       </c>
       <c r="E33">
-        <v>554.21699999999998</v>
+        <v>147.36500000000001</v>
       </c>
       <c r="F33">
-        <v>628.92200000000003</v>
+        <v>292.15199999999999</v>
       </c>
       <c r="G33">
-        <v>1543.797</v>
+        <v>1322.29</v>
       </c>
       <c r="H33">
-        <v>6145.9740000000002</v>
+        <v>2742.4780000000001</v>
       </c>
       <c r="I33">
-        <v>85.046000000000006</v>
+        <v>23.167999999999999</v>
       </c>
       <c r="J33">
-        <v>125.535</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,164 +3465,164 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2102.415</v>
+        <v>908.98299999999995</v>
       </c>
       <c r="O33">
-        <v>2660.9589999999998</v>
+        <v>1214.107</v>
       </c>
       <c r="P33">
-        <v>469.30399999999997</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>-18.164000000000001</v>
+        <v>32.143000000000001</v>
       </c>
       <c r="R33">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="S33">
-        <v>13245</v>
+        <v>5691</v>
       </c>
       <c r="T33">
-        <v>3485.0149999999999</v>
+        <v>1528.3710000000001</v>
       </c>
       <c r="U33">
-        <v>723.11500000000001</v>
+        <v>577.63199999999995</v>
       </c>
       <c r="V33">
-        <v>130.91800000000001</v>
+        <v>115.88500000000001</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-104.20699999999999</v>
+        <v>-28.937000000000001</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-2.9159999999999999</v>
+        <v>-43.728999999999999</v>
       </c>
       <c r="AA33">
-        <v>254.328</v>
+        <v>46.396999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>153.51400000000001</v>
+        <v>52.429000000000002</v>
       </c>
       <c r="D34">
-        <v>820.40099999999995</v>
+        <v>339.755</v>
       </c>
       <c r="E34">
-        <v>930.02099999999996</v>
+        <v>150.083</v>
       </c>
       <c r="F34">
-        <v>644.952</v>
+        <v>282.35300000000001</v>
       </c>
       <c r="G34">
-        <v>1797.63</v>
+        <v>1221.367</v>
       </c>
       <c r="H34">
-        <v>6344.4859999999999</v>
+        <v>2636.6579999999999</v>
       </c>
       <c r="I34">
-        <v>26.018999999999998</v>
+        <v>7.2709999999999999</v>
       </c>
       <c r="J34">
-        <v>127.14</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-112.812</v>
+        <v>-0.49199999999999999</v>
       </c>
       <c r="N34">
-        <v>2025.6379999999999</v>
+        <v>739.346</v>
       </c>
       <c r="O34">
-        <v>2559.8209999999999</v>
+        <v>1032.5429999999999</v>
       </c>
       <c r="P34">
-        <v>541.87</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>-130.79499999999999</v>
+        <v>-107.467</v>
       </c>
       <c r="R34">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>3784.665</v>
+        <v>1604.115</v>
       </c>
       <c r="U34">
-        <v>592.30499999999995</v>
+        <v>470.16500000000002</v>
       </c>
       <c r="V34">
-        <v>-144.01900000000001</v>
+        <v>-81.926000000000002</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>38.085999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>3.988</v>
       </c>
       <c r="AA34">
-        <v>153.51400000000001</v>
+        <v>52.429000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>118.21</v>
+        <v>48.287999999999997</v>
       </c>
       <c r="D35">
-        <v>836.24199999999996</v>
+        <v>336.83499999999998</v>
       </c>
       <c r="E35">
-        <v>695.178</v>
+        <v>189.11500000000001</v>
       </c>
       <c r="F35">
-        <v>660.44399999999996</v>
+        <v>279.495</v>
       </c>
       <c r="G35">
-        <v>1643.883</v>
+        <v>1294.9970000000001</v>
       </c>
       <c r="H35">
-        <v>6194.223</v>
+        <v>2696.0509999999999</v>
       </c>
       <c r="I35">
-        <v>31.219000000000001</v>
+        <v>8.6609999999999996</v>
       </c>
       <c r="J35">
-        <v>126.152</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1732.9269999999999</v>
+        <v>726.09799999999996</v>
       </c>
       <c r="O35">
-        <v>2278.788</v>
+        <v>1002.105</v>
       </c>
       <c r="P35">
-        <v>291.84399999999999</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>38.841999999999999</v>
+        <v>36.234000000000002</v>
       </c>
       <c r="R35">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3915.4349999999999</v>
+        <v>1693.9459999999999</v>
       </c>
       <c r="U35">
-        <v>631.16099999999994</v>
+        <v>506.399</v>
       </c>
       <c r="V35">
-        <v>352.82</v>
+        <v>24.710999999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-275.65600000000001</v>
+        <v>25.007999999999999</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>4.1760000000000002</v>
+        <v>-0.17399999999999999</v>
       </c>
       <c r="AA35">
-        <v>118.21</v>
+        <v>48.287999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>99.929000000000002</v>
+        <v>47.436</v>
       </c>
       <c r="D36">
-        <v>852.97</v>
+        <v>345.17700000000002</v>
       </c>
       <c r="E36">
-        <v>663.21199999999999</v>
+        <v>136.76</v>
       </c>
       <c r="F36">
-        <v>679.94100000000003</v>
+        <v>283.59399999999999</v>
       </c>
       <c r="G36">
-        <v>1617.645</v>
+        <v>1448.9570000000001</v>
       </c>
       <c r="H36">
-        <v>6153.4080000000004</v>
+        <v>2877.7440000000001</v>
       </c>
       <c r="I36">
-        <v>14.846</v>
+        <v>8.3529999999999998</v>
       </c>
       <c r="J36">
-        <v>125.285</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1630.45</v>
+        <v>816.09199999999998</v>
       </c>
       <c r="O36">
-        <v>2213.739</v>
+        <v>1114.826</v>
       </c>
       <c r="P36">
-        <v>141.93799999999999</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>55.633000000000003</v>
+        <v>115.88200000000001</v>
       </c>
       <c r="R36">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3939.6689999999999</v>
+        <v>1762.9179999999999</v>
       </c>
       <c r="U36">
-        <v>686.78</v>
+        <v>622.28099999999995</v>
       </c>
       <c r="V36">
-        <v>370.46300000000002</v>
+        <v>232.464</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-264.74700000000001</v>
+        <v>1.913</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>2.1850000000000001</v>
+        <v>-90.813999999999993</v>
       </c>
       <c r="AA36">
-        <v>99.929000000000002</v>
+        <v>47.436</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>160.714</v>
+        <v>19.527999999999999</v>
       </c>
       <c r="D37">
-        <v>851.08100000000002</v>
+        <v>338.27800000000002</v>
       </c>
       <c r="E37">
-        <v>764.452</v>
+        <v>127.01</v>
       </c>
       <c r="F37">
-        <v>682.03399999999999</v>
+        <v>273.61500000000001</v>
       </c>
       <c r="G37">
-        <v>1738.9169999999999</v>
+        <v>1463.8</v>
       </c>
       <c r="H37">
-        <v>6405.16</v>
+        <v>2938.8539999999998</v>
       </c>
       <c r="I37">
-        <v>19.815000000000001</v>
+        <v>10.135999999999999</v>
       </c>
       <c r="J37">
-        <v>120.093</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,164 +3797,164 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1752.453</v>
+        <v>814.59299999999996</v>
       </c>
       <c r="O37">
-        <v>2316.2840000000001</v>
+        <v>1094.6880000000001</v>
       </c>
       <c r="P37">
-        <v>137.70699999999999</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>41.845999999999997</v>
+        <v>79.331999999999994</v>
       </c>
       <c r="R37">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="S37">
-        <v>13896</v>
+        <v>5928</v>
       </c>
       <c r="T37">
-        <v>4088.8760000000002</v>
+        <v>1844.1659999999999</v>
       </c>
       <c r="U37">
-        <v>728.59699999999998</v>
+        <v>701.61300000000006</v>
       </c>
       <c r="V37">
-        <v>221.249</v>
+        <v>63.91</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-59.575000000000003</v>
+        <v>41.871000000000002</v>
       </c>
       <c r="Y37">
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>-3.2450000000000001</v>
+        <v>-9.4930000000000003</v>
       </c>
       <c r="AA37">
-        <v>160.714</v>
+        <v>19.527999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>104.06100000000001</v>
+        <v>132.786</v>
       </c>
       <c r="D38">
-        <v>834.38099999999997</v>
+        <v>330.16699999999997</v>
       </c>
       <c r="E38">
-        <v>1004.713</v>
+        <v>142.49299999999999</v>
       </c>
       <c r="F38">
-        <v>654.68200000000002</v>
+        <v>272.44299999999998</v>
       </c>
       <c r="G38">
-        <v>1951.4290000000001</v>
+        <v>1398.521</v>
       </c>
       <c r="H38">
-        <v>7202.9030000000002</v>
+        <v>2909.7649999999999</v>
       </c>
       <c r="I38">
-        <v>26.579000000000001</v>
+        <v>7.335</v>
       </c>
       <c r="J38">
-        <v>122.51600000000001</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-3.75</v>
+        <v>-0.74399999999999999</v>
       </c>
       <c r="N38">
-        <v>2055.7379999999998</v>
+        <v>723.18399999999997</v>
       </c>
       <c r="O38">
-        <v>3048.2130000000002</v>
+        <v>939.02200000000005</v>
       </c>
       <c r="P38">
-        <v>858.51800000000003</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>-28.245000000000001</v>
+        <v>-75.123000000000005</v>
       </c>
       <c r="R38">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>4154.6899999999996</v>
+        <v>1970.7429999999999</v>
       </c>
       <c r="U38">
-        <v>700.35599999999999</v>
+        <v>626.49</v>
       </c>
       <c r="V38">
-        <v>9.82</v>
+        <v>-45.417000000000002</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>93.48</v>
+        <v>-17.867999999999999</v>
       </c>
       <c r="Y38">
-        <v>459.15199999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-2.5</v>
+        <v>-1.276</v>
       </c>
       <c r="AA38">
-        <v>104.06100000000001</v>
+        <v>132.786</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>109.92</v>
+        <v>39.548999999999999</v>
       </c>
       <c r="D39">
-        <v>861.327</v>
+        <v>338.10599999999999</v>
       </c>
       <c r="E39">
-        <v>828.45799999999997</v>
+        <v>149.654</v>
       </c>
       <c r="F39">
-        <v>690.90700000000004</v>
+        <v>277.90800000000002</v>
       </c>
       <c r="G39">
-        <v>1960.7550000000001</v>
+        <v>1379.894</v>
       </c>
       <c r="H39">
-        <v>7322.4660000000003</v>
+        <v>3005.3359999999998</v>
       </c>
       <c r="I39">
-        <v>51.756</v>
+        <v>10.252000000000001</v>
       </c>
       <c r="J39">
-        <v>114.37</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2054.1970000000001</v>
+        <v>720.59699999999998</v>
       </c>
       <c r="O39">
-        <v>3041.5169999999998</v>
+        <v>947.17499999999995</v>
       </c>
       <c r="P39">
-        <v>770.34100000000001</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>156.136</v>
+        <v>42.941000000000003</v>
       </c>
       <c r="R39">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4280.9489999999996</v>
+        <v>2058.1610000000001</v>
       </c>
       <c r="U39">
-        <v>856.42399999999998</v>
+        <v>669.43100000000004</v>
       </c>
       <c r="V39">
-        <v>379.91899999999998</v>
+        <v>81.644999999999996</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-114.17100000000001</v>
+        <v>39.475000000000001</v>
       </c>
       <c r="Y39">
-        <v>462.09399999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-0.26200000000000001</v>
+        <v>58.177999999999997</v>
       </c>
       <c r="AA39">
-        <v>109.92</v>
+        <v>39.548999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>252.911</v>
+        <v>39.326999999999998</v>
       </c>
       <c r="D40">
-        <v>964.13400000000001</v>
+        <v>336.92899999999997</v>
       </c>
       <c r="E40">
-        <v>855.005</v>
+        <v>148.58199999999999</v>
       </c>
       <c r="F40">
-        <v>784.84400000000005</v>
+        <v>278.23599999999999</v>
       </c>
       <c r="G40">
-        <v>2186.0149999999999</v>
+        <v>1495.9739999999999</v>
       </c>
       <c r="H40">
-        <v>7663.25</v>
+        <v>3114.6489999999999</v>
       </c>
       <c r="I40">
-        <v>37.125999999999998</v>
+        <v>11.244999999999999</v>
       </c>
       <c r="J40">
-        <v>107.104</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2056.277</v>
+        <v>837.05399999999997</v>
       </c>
       <c r="O40">
-        <v>3061.933</v>
+        <v>1064.8389999999999</v>
       </c>
       <c r="P40">
-        <v>673.428</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>193.57</v>
+        <v>214.01</v>
       </c>
       <c r="R40">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4601.317</v>
+        <v>2049.81</v>
       </c>
       <c r="U40">
-        <v>1049.922</v>
+        <v>883.44100000000003</v>
       </c>
       <c r="V40">
-        <v>399.423</v>
+        <v>207.916</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-130.785</v>
+        <v>-63.231999999999999</v>
       </c>
       <c r="Y40">
-        <v>470.21499999999997</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>2.1509999999999998</v>
+        <v>85.658000000000001</v>
       </c>
       <c r="AA40">
-        <v>252.911</v>
+        <v>39.326999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44135</v>
+        <v>40482</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>197.45500000000001</v>
+        <v>25.401</v>
       </c>
       <c r="D41">
-        <v>1025.4390000000001</v>
+        <v>375.459</v>
       </c>
       <c r="E41">
-        <v>995.29200000000003</v>
+        <v>181.102</v>
       </c>
       <c r="F41">
-        <v>812.61</v>
+        <v>307.08300000000003</v>
       </c>
       <c r="G41">
-        <v>2549.2170000000001</v>
+        <v>1247.7550000000001</v>
       </c>
       <c r="H41">
-        <v>8030.0619999999999</v>
+        <v>3286.5410000000002</v>
       </c>
       <c r="I41">
-        <v>30.003</v>
+        <v>16.331</v>
       </c>
       <c r="J41">
-        <v>100.82299999999999</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2139.922</v>
+        <v>921.76800000000003</v>
       </c>
       <c r="O41">
-        <v>3117.6950000000002</v>
+        <v>1186.3589999999999</v>
       </c>
       <c r="P41">
-        <v>663.49099999999999</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>185.982</v>
+        <v>-108.03400000000001</v>
       </c>
       <c r="R41">
-        <v>44135</v>
+        <v>40482</v>
       </c>
       <c r="S41">
-        <v>15036</v>
+        <v>6707</v>
       </c>
       <c r="T41">
-        <v>4912.3670000000002</v>
+        <v>2100.1819999999998</v>
       </c>
       <c r="U41">
-        <v>1235.653</v>
+        <v>775.40700000000004</v>
       </c>
       <c r="V41">
-        <v>202.15100000000001</v>
+        <v>96.891999999999996</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>10.87</v>
+        <v>-1.4370000000000001</v>
       </c>
       <c r="Y41">
-        <v>462.411</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>161.61099999999999</v>
       </c>
       <c r="AA41">
-        <v>197.45500000000001</v>
+        <v>25.401</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44227</v>
+        <v>40574</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>48.225999999999999</v>
+      </c>
+      <c r="D42">
+        <v>364.64400000000001</v>
+      </c>
+      <c r="E42">
+        <v>169.16499999999999</v>
+      </c>
+      <c r="F42">
+        <v>293.57400000000001</v>
+      </c>
+      <c r="G42">
+        <v>1194.277</v>
+      </c>
+      <c r="H42">
+        <v>3213.288</v>
+      </c>
+      <c r="I42">
+        <v>14.36</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-0.65500000000000003</v>
+      </c>
+      <c r="N42">
+        <v>785.08199999999999</v>
+      </c>
+      <c r="O42">
+        <v>1055.415</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>-74.795000000000002</v>
+      </c>
+      <c r="R42">
+        <v>40574</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2157.873</v>
+      </c>
+      <c r="U42">
+        <v>700.61199999999997</v>
+      </c>
+      <c r="V42">
+        <v>-39.633000000000003</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-13.188000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-4.9080000000000004</v>
+      </c>
+      <c r="AA42">
+        <v>48.225999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>81.114000000000004</v>
+      </c>
+      <c r="D43">
+        <v>393.67</v>
+      </c>
+      <c r="E43">
+        <v>210.06800000000001</v>
+      </c>
+      <c r="F43">
+        <v>322.55</v>
+      </c>
+      <c r="G43">
+        <v>1206.6220000000001</v>
+      </c>
+      <c r="H43">
+        <v>3209.4690000000001</v>
+      </c>
+      <c r="I43">
+        <v>15.898999999999999</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>807.83600000000001</v>
+      </c>
+      <c r="O43">
+        <v>1062.0709999999999</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>-6.58</v>
+      </c>
+      <c r="R43">
+        <v>40663</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2147.3980000000001</v>
+      </c>
+      <c r="U43">
+        <v>694.03200000000004</v>
+      </c>
+      <c r="V43">
+        <v>96.488</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-114.264</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>19.120999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>81.114000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>52.082000000000001</v>
+      </c>
+      <c r="D44">
+        <v>386.79500000000002</v>
+      </c>
+      <c r="E44">
+        <v>175.386</v>
+      </c>
+      <c r="F44">
+        <v>315.43099999999998</v>
+      </c>
+      <c r="G44">
+        <v>1362.296</v>
+      </c>
+      <c r="H44">
+        <v>3368.6379999999999</v>
+      </c>
+      <c r="I44">
+        <v>11.627000000000001</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>982.09</v>
+      </c>
+      <c r="O44">
+        <v>1247.1310000000001</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>195.85400000000001</v>
+      </c>
+      <c r="R44">
+        <v>40755</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>2121.5070000000001</v>
+      </c>
+      <c r="U44">
+        <v>889.88599999999997</v>
+      </c>
+      <c r="V44">
+        <v>310.435</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-92.299000000000007</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-2.8109999999999999</v>
+      </c>
+      <c r="AA44">
+        <v>52.082000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>39.942</v>
+      </c>
+      <c r="D45">
+        <v>390.53399999999999</v>
+      </c>
+      <c r="E45">
+        <v>203.124</v>
+      </c>
+      <c r="F45">
+        <v>318.45699999999999</v>
+      </c>
+      <c r="G45">
+        <v>1338.0550000000001</v>
+      </c>
+      <c r="H45">
+        <v>3368.8440000000001</v>
+      </c>
+      <c r="I45">
+        <v>6.9560000000000004</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1010.32</v>
+      </c>
+      <c r="O45">
+        <v>1267.5440000000001</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-34.808999999999997</v>
+      </c>
+      <c r="R45">
+        <v>40847</v>
+      </c>
+      <c r="S45">
+        <v>6803</v>
+      </c>
+      <c r="T45">
+        <v>2101.3000000000002</v>
+      </c>
+      <c r="U45">
+        <v>855.077</v>
+      </c>
+      <c r="V45">
+        <v>73.025999999999996</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-57.868000000000002</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>1.024</v>
+      </c>
+      <c r="AA45">
+        <v>39.942</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40939</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>56.694000000000003</v>
+      </c>
+      <c r="D46">
+        <v>425.49599999999998</v>
+      </c>
+      <c r="E46">
+        <v>213.76300000000001</v>
+      </c>
+      <c r="F46">
+        <v>349.03</v>
+      </c>
+      <c r="G46">
+        <v>1289.6500000000001</v>
+      </c>
+      <c r="H46">
+        <v>3299</v>
+      </c>
+      <c r="I46">
+        <v>9.2539999999999996</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-1.081</v>
+      </c>
+      <c r="N46">
+        <v>863.82799999999997</v>
+      </c>
+      <c r="O46">
+        <v>1127.1949999999999</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>-43.738</v>
+      </c>
+      <c r="R46">
+        <v>40939</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2171.8049999999998</v>
+      </c>
+      <c r="U46">
+        <v>811.33900000000006</v>
+      </c>
+      <c r="V46">
+        <v>-39.317999999999998</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>15.86</v>
+      </c>
+      <c r="AA46">
+        <v>56.694000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41029</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>20.971</v>
+      </c>
+      <c r="D47">
+        <v>432.56099999999998</v>
+      </c>
+      <c r="E47">
+        <v>236.31399999999999</v>
+      </c>
+      <c r="F47">
+        <v>355.75400000000002</v>
+      </c>
+      <c r="G47">
+        <v>1173.5409999999999</v>
+      </c>
+      <c r="H47">
+        <v>3744.482</v>
+      </c>
+      <c r="I47">
+        <v>12.853999999999999</v>
+      </c>
+      <c r="J47">
+        <v>120</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1073.2170000000001</v>
+      </c>
+      <c r="O47">
+        <v>1454.5060000000001</v>
+      </c>
+      <c r="P47">
+        <v>250</v>
+      </c>
+      <c r="Q47">
+        <v>-14.744999999999999</v>
+      </c>
+      <c r="R47">
+        <v>41029</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2289.9760000000001</v>
+      </c>
+      <c r="U47">
+        <v>796.59400000000005</v>
+      </c>
+      <c r="V47">
+        <v>126.774</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>298.11099999999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>132.09299999999999</v>
+      </c>
+      <c r="AA47">
+        <v>20.971</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>75.656000000000006</v>
+      </c>
+      <c r="D48">
+        <v>443.74700000000001</v>
+      </c>
+      <c r="E48">
+        <v>210.929</v>
+      </c>
+      <c r="F48">
+        <v>365.11399999999998</v>
+      </c>
+      <c r="G48">
+        <v>1293.702</v>
+      </c>
+      <c r="H48">
+        <v>3869.2710000000002</v>
+      </c>
+      <c r="I48">
+        <v>12.084</v>
+      </c>
+      <c r="J48">
+        <v>112.5</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1138.2149999999999</v>
+      </c>
+      <c r="O48">
+        <v>1478.171</v>
+      </c>
+      <c r="P48">
+        <v>142.5</v>
+      </c>
+      <c r="Q48">
+        <v>167.173</v>
+      </c>
+      <c r="R48">
+        <v>41121</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2391.1</v>
+      </c>
+      <c r="U48">
+        <v>963.76700000000005</v>
+      </c>
+      <c r="V48">
+        <v>295.68</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-93.412999999999997</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>75.656000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>29.081</v>
+      </c>
+      <c r="D49">
+        <v>454.21300000000002</v>
+      </c>
+      <c r="E49">
+        <v>292.66800000000001</v>
+      </c>
+      <c r="F49">
+        <v>374.70100000000002</v>
+      </c>
+      <c r="G49">
+        <v>1140.6559999999999</v>
+      </c>
+      <c r="H49">
+        <v>4147.6559999999999</v>
+      </c>
+      <c r="I49">
+        <v>29.855</v>
+      </c>
+      <c r="J49">
+        <v>105</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1252.6389999999999</v>
+      </c>
+      <c r="O49">
+        <v>1603.6849999999999</v>
+      </c>
+      <c r="P49">
+        <v>135</v>
+      </c>
+      <c r="Q49">
+        <v>-263.38499999999999</v>
+      </c>
+      <c r="R49">
+        <v>41213</v>
+      </c>
+      <c r="S49">
+        <v>8138</v>
+      </c>
+      <c r="T49">
+        <v>2543.971</v>
+      </c>
+      <c r="U49">
+        <v>700.38199999999995</v>
+      </c>
+      <c r="V49">
+        <v>102.932</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>38.765000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>29.081</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>69.921999999999997</v>
+      </c>
+      <c r="D50">
+        <v>475.137</v>
+      </c>
+      <c r="E50">
+        <v>270.21699999999998</v>
+      </c>
+      <c r="F50">
+        <v>390.59</v>
+      </c>
+      <c r="G50">
+        <v>999.78200000000004</v>
+      </c>
+      <c r="H50">
+        <v>4020.5459999999998</v>
+      </c>
+      <c r="I50">
+        <v>14.288</v>
+      </c>
+      <c r="J50">
+        <v>97.5</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-8.0280000000000005</v>
+      </c>
+      <c r="N50">
+        <v>1022.0119999999999</v>
+      </c>
+      <c r="O50">
+        <v>1418.3869999999999</v>
+      </c>
+      <c r="P50">
+        <v>127.5</v>
+      </c>
+      <c r="Q50">
+        <v>-150.017</v>
+      </c>
+      <c r="R50">
+        <v>41305</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2602.1590000000001</v>
+      </c>
+      <c r="U50">
+        <v>550.36500000000001</v>
+      </c>
+      <c r="V50">
+        <v>-91.438000000000002</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-36.417000000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>69.921999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>68.691000000000003</v>
+      </c>
+      <c r="D51">
+        <v>499.25700000000001</v>
+      </c>
+      <c r="E51">
+        <v>251.68199999999999</v>
+      </c>
+      <c r="F51">
+        <v>417.92200000000003</v>
+      </c>
+      <c r="G51">
+        <v>1106.3689999999999</v>
+      </c>
+      <c r="H51">
+        <v>4098.8879999999999</v>
+      </c>
+      <c r="I51">
+        <v>23.541</v>
+      </c>
+      <c r="J51">
+        <v>90</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1012.922</v>
+      </c>
+      <c r="O51">
+        <v>1399.9559999999999</v>
+      </c>
+      <c r="P51">
+        <v>120</v>
+      </c>
+      <c r="Q51">
+        <v>130.65299999999999</v>
+      </c>
+      <c r="R51">
+        <v>41394</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2698.9319999999998</v>
+      </c>
+      <c r="U51">
+        <v>681.01800000000003</v>
+      </c>
+      <c r="V51">
+        <v>133.72999999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>15.457000000000001</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0.222</v>
+      </c>
+      <c r="AA51">
+        <v>68.691000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>52.296999999999997</v>
+      </c>
+      <c r="D52">
+        <v>482.94499999999999</v>
+      </c>
+      <c r="E52">
+        <v>278.87799999999999</v>
+      </c>
+      <c r="F52">
+        <v>393.83499999999998</v>
+      </c>
+      <c r="G52">
+        <v>1330.0840000000001</v>
+      </c>
+      <c r="H52">
+        <v>4288.4719999999998</v>
+      </c>
+      <c r="I52">
+        <v>16.187999999999999</v>
+      </c>
+      <c r="J52">
+        <v>82.5</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1171.682</v>
+      </c>
+      <c r="O52">
+        <v>1552.3420000000001</v>
+      </c>
+      <c r="P52">
+        <v>112.5</v>
+      </c>
+      <c r="Q52">
+        <v>211.352</v>
+      </c>
+      <c r="R52">
+        <v>41486</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2736.13</v>
+      </c>
+      <c r="U52">
+        <v>892.37</v>
+      </c>
+      <c r="V52">
+        <v>263.07799999999997</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-31.27</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>52.296999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>56.89</v>
+      </c>
+      <c r="D53">
+        <v>504.875</v>
+      </c>
+      <c r="E53">
+        <v>256.02600000000001</v>
+      </c>
+      <c r="F53">
+        <v>410.61900000000003</v>
+      </c>
+      <c r="G53">
+        <v>1447.9770000000001</v>
+      </c>
+      <c r="H53">
+        <v>4358.9350000000004</v>
+      </c>
+      <c r="I53">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="J53">
+        <v>75</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1222.9190000000001</v>
+      </c>
+      <c r="O53">
+        <v>1570.6579999999999</v>
+      </c>
+      <c r="P53">
+        <v>105</v>
+      </c>
+      <c r="Q53">
+        <v>130.071</v>
+      </c>
+      <c r="R53">
+        <v>41578</v>
+      </c>
+      <c r="S53">
+        <v>8573</v>
+      </c>
+      <c r="T53">
+        <v>2788.277</v>
+      </c>
+      <c r="U53">
+        <v>1022.441</v>
+      </c>
+      <c r="V53">
+        <v>191.33500000000001</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-45.755000000000003</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="AA53">
+        <v>56.89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>67.695999999999998</v>
+      </c>
+      <c r="D54">
+        <v>478.95100000000002</v>
+      </c>
+      <c r="E54">
+        <v>246.774</v>
+      </c>
+      <c r="F54">
+        <v>395.85500000000002</v>
+      </c>
+      <c r="G54">
+        <v>1320.865</v>
+      </c>
+      <c r="H54">
+        <v>4192.1559999999999</v>
+      </c>
+      <c r="I54">
+        <v>8.0839999999999996</v>
+      </c>
+      <c r="J54">
+        <v>67.5</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-7.7480000000000002</v>
+      </c>
+      <c r="N54">
+        <v>1036.703</v>
+      </c>
+      <c r="O54">
+        <v>1368.941</v>
+      </c>
+      <c r="P54">
+        <v>97.5</v>
+      </c>
+      <c r="Q54">
+        <v>-129.38800000000001</v>
+      </c>
+      <c r="R54">
+        <v>41670</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2823.2150000000001</v>
+      </c>
+      <c r="U54">
+        <v>893.053</v>
+      </c>
+      <c r="V54">
+        <v>-73.891999999999996</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-41.024999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>6.7910000000000004</v>
+      </c>
+      <c r="AA54">
+        <v>67.695999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>63.317</v>
+      </c>
+      <c r="D55">
+        <v>517.697</v>
+      </c>
+      <c r="E55">
+        <v>322.60599999999999</v>
+      </c>
+      <c r="F55">
+        <v>429.286</v>
+      </c>
+      <c r="G55">
+        <v>1328.271</v>
+      </c>
+      <c r="H55">
+        <v>4560.5360000000001</v>
+      </c>
+      <c r="I55">
+        <v>13.381</v>
+      </c>
+      <c r="J55">
+        <v>60</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1304.732</v>
+      </c>
+      <c r="O55">
+        <v>1641.4169999999999</v>
+      </c>
+      <c r="P55">
+        <v>290</v>
+      </c>
+      <c r="Q55">
+        <v>-71.42</v>
+      </c>
+      <c r="R55">
+        <v>41759</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2919.1190000000001</v>
+      </c>
+      <c r="U55">
+        <v>821.63300000000004</v>
+      </c>
+      <c r="V55">
+        <v>111.803</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>198.40100000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="AA55">
+        <v>63.317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>65.656000000000006</v>
+      </c>
+      <c r="D56">
+        <v>521.81200000000001</v>
+      </c>
+      <c r="E56">
+        <v>238.863</v>
+      </c>
+      <c r="F56">
+        <v>432.55399999999997</v>
+      </c>
+      <c r="G56">
+        <v>1314.7829999999999</v>
+      </c>
+      <c r="H56">
+        <v>4544.9290000000001</v>
+      </c>
+      <c r="I56">
+        <v>14.624000000000001</v>
+      </c>
+      <c r="J56">
+        <v>52.5</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1227.2840000000001</v>
+      </c>
+      <c r="O56">
+        <v>1548.876</v>
+      </c>
+      <c r="P56">
+        <v>82.5</v>
+      </c>
+      <c r="Q56">
+        <v>81.412999999999997</v>
+      </c>
+      <c r="R56">
+        <v>41851</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2996.0529999999999</v>
+      </c>
+      <c r="U56">
+        <v>903.04600000000005</v>
+      </c>
+      <c r="V56">
+        <v>340.13</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-220.03399999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AA56">
+        <v>65.656000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>62.454999999999998</v>
+      </c>
+      <c r="D57">
+        <v>539.01199999999994</v>
+      </c>
+      <c r="E57">
+        <v>326.72699999999998</v>
+      </c>
+      <c r="F57">
+        <v>444.20299999999997</v>
+      </c>
+      <c r="G57">
+        <v>1504.7349999999999</v>
+      </c>
+      <c r="H57">
+        <v>4775.4989999999998</v>
+      </c>
+      <c r="I57">
+        <v>28.152000000000001</v>
+      </c>
+      <c r="J57">
+        <v>45</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1386.759</v>
+      </c>
+      <c r="O57">
+        <v>1719.329</v>
+      </c>
+      <c r="P57">
+        <v>75</v>
+      </c>
+      <c r="Q57">
+        <v>82.715999999999994</v>
+      </c>
+      <c r="R57">
+        <v>41943</v>
+      </c>
+      <c r="S57">
+        <v>9436</v>
+      </c>
+      <c r="T57">
+        <v>3056.17</v>
+      </c>
+      <c r="U57">
+        <v>985.76199999999994</v>
+      </c>
+      <c r="V57">
+        <v>172.91200000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-11.031000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AA57">
+        <v>62.454999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>65.188999999999993</v>
+      </c>
+      <c r="D58">
+        <v>542.04300000000001</v>
+      </c>
+      <c r="E58">
+        <v>283.00700000000001</v>
+      </c>
+      <c r="F58">
+        <v>443.27600000000001</v>
+      </c>
+      <c r="G58">
+        <v>1416.2729999999999</v>
+      </c>
+      <c r="H58">
+        <v>4662.3490000000002</v>
+      </c>
+      <c r="I58">
+        <v>28.24</v>
+      </c>
+      <c r="J58">
+        <v>37.5</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-22.722999999999999</v>
+      </c>
+      <c r="N58">
+        <v>1343.104</v>
+      </c>
+      <c r="O58">
+        <v>1725.328</v>
+      </c>
+      <c r="P58">
+        <v>302.5</v>
+      </c>
+      <c r="Q58">
+        <v>-188.93799999999999</v>
+      </c>
+      <c r="R58">
+        <v>42035</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2937.0210000000002</v>
+      </c>
+      <c r="U58">
+        <v>796.82399999999996</v>
+      </c>
+      <c r="V58">
+        <v>-87.343000000000004</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>57.805</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-120.41500000000001</v>
+      </c>
+      <c r="AA58">
+        <v>65.188999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>55.595999999999997</v>
+      </c>
+      <c r="D59">
+        <v>557.20399999999995</v>
+      </c>
+      <c r="E59">
+        <v>338.40699999999998</v>
+      </c>
+      <c r="F59">
+        <v>457.84399999999999</v>
+      </c>
+      <c r="G59">
+        <v>1544.9749999999999</v>
+      </c>
+      <c r="H59">
+        <v>4756.1670000000004</v>
+      </c>
+      <c r="I59">
+        <v>26.86</v>
+      </c>
+      <c r="J59">
+        <v>30</v>
+      </c>
+      <c r="K59">
+        <v>160</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1325.038</v>
+      </c>
+      <c r="O59">
+        <v>1691.1690000000001</v>
+      </c>
+      <c r="P59">
+        <v>220</v>
+      </c>
+      <c r="Q59">
+        <v>72.021000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42124</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3064.998</v>
+      </c>
+      <c r="U59">
+        <v>868.84500000000003</v>
+      </c>
+      <c r="V59">
+        <v>155.07900000000001</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-39.338999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-16.608000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>55.595999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>55.387</v>
+      </c>
+      <c r="D60">
+        <v>555.80499999999995</v>
+      </c>
+      <c r="E60">
+        <v>307.82499999999999</v>
+      </c>
+      <c r="F60">
+        <v>453.03800000000001</v>
+      </c>
+      <c r="G60">
+        <v>1627.537</v>
+      </c>
+      <c r="H60">
+        <v>4953.9719999999998</v>
+      </c>
+      <c r="I60">
+        <v>18.690000000000001</v>
+      </c>
+      <c r="J60">
+        <v>22.5</v>
+      </c>
+      <c r="K60">
+        <v>160</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1459.3430000000001</v>
+      </c>
+      <c r="O60">
+        <v>1815.7239999999999</v>
+      </c>
+      <c r="P60">
+        <v>212.5</v>
+      </c>
+      <c r="Q60">
+        <v>117.578</v>
+      </c>
+      <c r="R60">
+        <v>42216</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3138.248</v>
+      </c>
+      <c r="U60">
+        <v>986.423</v>
+      </c>
+      <c r="V60">
+        <v>275.00700000000001</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-5.0919999999999996</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>-0.224</v>
+      </c>
+      <c r="AA60">
+        <v>55.387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>49.762</v>
+      </c>
+      <c r="D61">
+        <v>587.15899999999999</v>
+      </c>
+      <c r="E61">
+        <v>385.69400000000002</v>
+      </c>
+      <c r="F61">
+        <v>479.178</v>
+      </c>
+      <c r="G61">
+        <v>1468.807</v>
+      </c>
+      <c r="H61">
+        <v>5045.7389999999996</v>
+      </c>
+      <c r="I61">
+        <v>9.9190000000000005</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>160</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1578.3530000000001</v>
+      </c>
+      <c r="O61">
+        <v>1911.75</v>
+      </c>
+      <c r="P61">
+        <v>205</v>
+      </c>
+      <c r="Q61">
+        <v>-150.23500000000001</v>
+      </c>
+      <c r="R61">
+        <v>42308</v>
+      </c>
+      <c r="S61">
+        <v>10284</v>
+      </c>
+      <c r="T61">
+        <v>3133.989</v>
+      </c>
+      <c r="U61">
+        <v>836.18799999999999</v>
+      </c>
+      <c r="V61">
+        <v>152.417</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-75.444000000000003</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>7.5179999999999998</v>
+      </c>
+      <c r="AA61">
+        <v>49.762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>60.034999999999997</v>
+      </c>
+      <c r="D62">
+        <v>568.60400000000004</v>
+      </c>
+      <c r="E62">
+        <v>354.76600000000002</v>
+      </c>
+      <c r="F62">
+        <v>469.68599999999998</v>
+      </c>
+      <c r="G62">
+        <v>1200.528</v>
+      </c>
+      <c r="H62">
+        <v>4747.5230000000001</v>
+      </c>
+      <c r="I62">
+        <v>20.16</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>190</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-7.5</v>
+      </c>
+      <c r="N62">
+        <v>1433.2819999999999</v>
+      </c>
+      <c r="O62">
+        <v>1757.14</v>
+      </c>
+      <c r="P62">
+        <v>227.5</v>
+      </c>
+      <c r="Q62">
+        <v>-253.202</v>
+      </c>
+      <c r="R62">
+        <v>42400</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2990.3829999999998</v>
+      </c>
+      <c r="U62">
+        <v>582.98599999999999</v>
+      </c>
+      <c r="V62">
+        <v>-35.17</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-182.255</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>5.7169999999999996</v>
+      </c>
+      <c r="AA62">
+        <v>60.034999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>69.376000000000005</v>
+      </c>
+      <c r="D63">
+        <v>605.005</v>
+      </c>
+      <c r="E63">
+        <v>299.07600000000002</v>
+      </c>
+      <c r="F63">
+        <v>497.93</v>
+      </c>
+      <c r="G63">
+        <v>1403.1969999999999</v>
+      </c>
+      <c r="H63">
+        <v>4965.2629999999999</v>
+      </c>
+      <c r="I63">
+        <v>30.088999999999999</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>220</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1485.212</v>
+      </c>
+      <c r="O63">
+        <v>1815.258</v>
+      </c>
+      <c r="P63">
+        <v>250</v>
+      </c>
+      <c r="Q63">
+        <v>244.96</v>
+      </c>
+      <c r="R63">
+        <v>42490</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3150.0050000000001</v>
+      </c>
+      <c r="U63">
+        <v>827.94600000000003</v>
+      </c>
+      <c r="V63">
+        <v>222.434</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>63.488</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-7.4409999999999998</v>
+      </c>
+      <c r="AA63">
+        <v>69.376000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>64.718000000000004</v>
+      </c>
+      <c r="D64">
+        <v>615.20399999999995</v>
+      </c>
+      <c r="E64">
+        <v>317.06700000000001</v>
+      </c>
+      <c r="F64">
+        <v>499.99</v>
+      </c>
+      <c r="G64">
+        <v>1552.038</v>
+      </c>
+      <c r="H64">
+        <v>5108.7889999999998</v>
+      </c>
+      <c r="I64">
+        <v>26.216000000000001</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>255</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1663.596</v>
+      </c>
+      <c r="O64">
+        <v>1988.0429999999999</v>
+      </c>
+      <c r="P64">
+        <v>277.5</v>
+      </c>
+      <c r="Q64">
+        <v>118.371</v>
+      </c>
+      <c r="R64">
+        <v>42582</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3120.7460000000001</v>
+      </c>
+      <c r="U64">
+        <v>946.31700000000001</v>
+      </c>
+      <c r="V64">
+        <v>251.709</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-86.853999999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-12.631</v>
+      </c>
+      <c r="AA64">
+        <v>64.718000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>72.697000000000003</v>
+      </c>
+      <c r="D65">
+        <v>633.71900000000005</v>
+      </c>
+      <c r="E65">
+        <v>438.87299999999999</v>
+      </c>
+      <c r="F65">
+        <v>514.08199999999999</v>
+      </c>
+      <c r="G65">
+        <v>1716.9380000000001</v>
+      </c>
+      <c r="H65">
+        <v>5240.3649999999998</v>
+      </c>
+      <c r="I65">
+        <v>13.744999999999999</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>205</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1714.9459999999999</v>
+      </c>
+      <c r="O65">
+        <v>2045.2190000000001</v>
+      </c>
+      <c r="P65">
+        <v>205</v>
+      </c>
+      <c r="Q65">
+        <v>30.303000000000001</v>
+      </c>
+      <c r="R65">
+        <v>42674</v>
+      </c>
+      <c r="S65">
+        <v>10669</v>
+      </c>
+      <c r="T65">
+        <v>3195.1460000000002</v>
+      </c>
+      <c r="U65">
+        <v>976.62</v>
+      </c>
+      <c r="V65">
+        <v>147.66200000000001</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-101.316</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="AA65">
+        <v>72.697000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>86.587999999999994</v>
+      </c>
+      <c r="D66">
+        <v>652.78599999999994</v>
+      </c>
+      <c r="E66">
+        <v>331.98399999999998</v>
+      </c>
+      <c r="F66">
+        <v>518.51199999999994</v>
+      </c>
+      <c r="G66">
+        <v>1484.0429999999999</v>
+      </c>
+      <c r="H66">
+        <v>5264.2539999999999</v>
+      </c>
+      <c r="I66">
+        <v>23.815999999999999</v>
+      </c>
+      <c r="J66">
+        <v>142.5</v>
+      </c>
+      <c r="K66">
+        <v>170.04</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-35</v>
+      </c>
+      <c r="N66">
+        <v>1456.5550000000001</v>
+      </c>
+      <c r="O66">
+        <v>1939.569</v>
+      </c>
+      <c r="P66">
+        <v>319.54000000000002</v>
+      </c>
+      <c r="Q66">
+        <v>-148.911</v>
+      </c>
+      <c r="R66">
+        <v>42766</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>3324.6849999999999</v>
+      </c>
+      <c r="U66">
+        <v>827.70899999999995</v>
+      </c>
+      <c r="V66">
+        <v>46.881999999999998</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>15.877000000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>1.946</v>
+      </c>
+      <c r="AA66">
+        <v>86.587999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>53.305999999999997</v>
+      </c>
+      <c r="D67">
+        <v>680.06899999999996</v>
+      </c>
+      <c r="E67">
+        <v>373.77</v>
+      </c>
+      <c r="F67">
+        <v>537.67499999999995</v>
+      </c>
+      <c r="G67">
+        <v>1682.0119999999999</v>
+      </c>
+      <c r="H67">
+        <v>5466.558</v>
+      </c>
+      <c r="I67">
+        <v>33.537999999999997</v>
+      </c>
+      <c r="J67">
+        <v>139.68799999999999</v>
+      </c>
+      <c r="K67">
+        <v>270</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1593.347</v>
+      </c>
+      <c r="O67">
+        <v>2089.0630000000001</v>
+      </c>
+      <c r="P67">
+        <v>417.68900000000002</v>
+      </c>
+      <c r="Q67">
+        <v>163.61600000000001</v>
+      </c>
+      <c r="R67">
+        <v>42855</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3377.4949999999999</v>
+      </c>
+      <c r="U67">
+        <v>991.32500000000005</v>
+      </c>
+      <c r="V67">
+        <v>122.97499999999999</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>50.962000000000003</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-1.6160000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>53.305999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>116.751</v>
+      </c>
+      <c r="D68">
+        <v>695.38099999999997</v>
+      </c>
+      <c r="E68">
+        <v>411.262</v>
+      </c>
+      <c r="F68">
+        <v>544.44899999999996</v>
+      </c>
+      <c r="G68">
+        <v>1894.6320000000001</v>
+      </c>
+      <c r="H68">
+        <v>5678.9390000000003</v>
+      </c>
+      <c r="I68">
+        <v>19.873000000000001</v>
+      </c>
+      <c r="J68">
+        <v>137.81299999999999</v>
+      </c>
+      <c r="K68">
+        <v>290</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1764.3979999999999</v>
+      </c>
+      <c r="O68">
+        <v>2255.7710000000002</v>
+      </c>
+      <c r="P68">
+        <v>435.83800000000002</v>
+      </c>
+      <c r="Q68">
+        <v>163.661</v>
+      </c>
+      <c r="R68">
+        <v>42947</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3423.1680000000001</v>
+      </c>
+      <c r="U68">
+        <v>1154.9860000000001</v>
+      </c>
+      <c r="V68">
+        <v>279.85399999999998</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-92.728999999999999</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-6.4480000000000004</v>
+      </c>
+      <c r="AA68">
+        <v>116.751</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>-120.08199999999999</v>
+      </c>
+      <c r="D69">
+        <v>696.64400000000001</v>
+      </c>
+      <c r="E69">
+        <v>451.14400000000001</v>
+      </c>
+      <c r="F69">
+        <v>546.16899999999998</v>
+      </c>
+      <c r="G69">
+        <v>1682.5930000000001</v>
+      </c>
+      <c r="H69">
+        <v>5396.4139999999998</v>
+      </c>
+      <c r="I69">
+        <v>19.954000000000001</v>
+      </c>
+      <c r="J69">
+        <v>134.06299999999999</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1614.1089999999999</v>
+      </c>
+      <c r="O69">
+        <v>2116.69</v>
+      </c>
+      <c r="P69">
+        <v>143.98699999999999</v>
+      </c>
+      <c r="Q69">
+        <v>-106.63</v>
+      </c>
+      <c r="R69">
+        <v>43039</v>
+      </c>
+      <c r="S69">
+        <v>11686</v>
+      </c>
+      <c r="T69">
+        <v>3279.7240000000002</v>
+      </c>
+      <c r="U69">
+        <v>1048.356</v>
+      </c>
+      <c r="V69">
+        <v>184.85400000000001</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-347.23</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>147.49199999999999</v>
+      </c>
+      <c r="AA69">
+        <v>-120.08199999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-3.6909999999999998</v>
+      </c>
+      <c r="D70">
+        <v>769.42600000000004</v>
+      </c>
+      <c r="E70">
+        <v>499.37299999999999</v>
+      </c>
+      <c r="F70">
+        <v>607.27800000000002</v>
+      </c>
+      <c r="G70">
+        <v>1332.346</v>
+      </c>
+      <c r="H70">
+        <v>5717.549</v>
+      </c>
+      <c r="I70">
+        <v>42.097000000000001</v>
+      </c>
+      <c r="J70">
+        <v>131.25</v>
+      </c>
+      <c r="K70">
+        <v>430</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-21.875</v>
+      </c>
+      <c r="N70">
+        <v>1950.414</v>
+      </c>
+      <c r="O70">
+        <v>2576.9160000000002</v>
+      </c>
+      <c r="P70">
+        <v>572.13499999999999</v>
+      </c>
+      <c r="Q70">
+        <v>-442.15300000000002</v>
+      </c>
+      <c r="R70">
+        <v>43131</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>3140.6329999999998</v>
+      </c>
+      <c r="U70">
+        <v>605.89200000000005</v>
+      </c>
+      <c r="V70">
+        <v>-59.054000000000002</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>230.364</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>12.449</v>
+      </c>
+      <c r="AA70">
+        <v>-3.6909999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>102.47199999999999</v>
+      </c>
+      <c r="D71">
+        <v>776.83600000000001</v>
+      </c>
+      <c r="E71">
+        <v>568.43399999999997</v>
+      </c>
+      <c r="F71">
+        <v>618.50699999999995</v>
+      </c>
+      <c r="G71">
+        <v>1370.1859999999999</v>
+      </c>
+      <c r="H71">
+        <v>5699.0709999999999</v>
+      </c>
+      <c r="I71">
+        <v>43.478999999999999</v>
+      </c>
+      <c r="J71">
+        <v>127.5</v>
+      </c>
+      <c r="K71">
+        <v>385</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1881.922</v>
+      </c>
+      <c r="O71">
+        <v>2438.674</v>
+      </c>
+      <c r="P71">
+        <v>524.34699999999998</v>
+      </c>
+      <c r="Q71">
+        <v>-35.152000000000001</v>
+      </c>
+      <c r="R71">
+        <v>43220</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>3260.3969999999999</v>
+      </c>
+      <c r="U71">
+        <v>570.80100000000004</v>
+      </c>
+      <c r="V71">
+        <v>63.369</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-37.959000000000003</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>102.47199999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>79.409000000000006</v>
+      </c>
+      <c r="D72">
+        <v>779.71400000000006</v>
+      </c>
+      <c r="E72">
+        <v>501.33100000000002</v>
+      </c>
+      <c r="F72">
+        <v>614.48699999999997</v>
+      </c>
+      <c r="G72">
+        <v>1465.5830000000001</v>
+      </c>
+      <c r="H72">
+        <v>5795.2150000000001</v>
+      </c>
+      <c r="I72">
+        <v>49.472999999999999</v>
+      </c>
+      <c r="J72">
+        <v>123.75</v>
+      </c>
+      <c r="K72">
+        <v>485</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2083.4050000000002</v>
+      </c>
+      <c r="O72">
+        <v>2631.2130000000002</v>
+      </c>
+      <c r="P72">
+        <v>621.55799999999999</v>
+      </c>
+      <c r="Q72">
+        <v>170.39500000000001</v>
+      </c>
+      <c r="R72">
+        <v>43312</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>3164.002</v>
+      </c>
+      <c r="U72">
+        <v>741.23599999999999</v>
+      </c>
+      <c r="V72">
+        <v>289.166</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-83.06</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-0.151</v>
+      </c>
+      <c r="AA72">
+        <v>79.409000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>254.328</v>
+      </c>
+      <c r="D73">
+        <v>795.08199999999999</v>
+      </c>
+      <c r="E73">
+        <v>554.21699999999998</v>
+      </c>
+      <c r="F73">
+        <v>628.92200000000003</v>
+      </c>
+      <c r="G73">
+        <v>1543.797</v>
+      </c>
+      <c r="H73">
+        <v>6145.9740000000002</v>
+      </c>
+      <c r="I73">
+        <v>85.046000000000006</v>
+      </c>
+      <c r="J73">
+        <v>125.535</v>
+      </c>
+      <c r="K73">
+        <v>330</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2102.415</v>
+      </c>
+      <c r="O73">
+        <v>2660.9589999999998</v>
+      </c>
+      <c r="P73">
+        <v>469.30399999999997</v>
+      </c>
+      <c r="Q73">
+        <v>-18.164000000000001</v>
+      </c>
+      <c r="R73">
+        <v>43404</v>
+      </c>
+      <c r="S73">
+        <v>13245</v>
+      </c>
+      <c r="T73">
+        <v>3485.0149999999999</v>
+      </c>
+      <c r="U73">
+        <v>723.11500000000001</v>
+      </c>
+      <c r="V73">
+        <v>130.91800000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-104.20699999999999</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-2.9159999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>254.328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>153.51400000000001</v>
+      </c>
+      <c r="D74">
+        <v>820.40099999999995</v>
+      </c>
+      <c r="E74">
+        <v>930.02099999999996</v>
+      </c>
+      <c r="F74">
+        <v>644.952</v>
+      </c>
+      <c r="G74">
+        <v>1797.63</v>
+      </c>
+      <c r="H74">
+        <v>6344.4859999999999</v>
+      </c>
+      <c r="I74">
+        <v>26.018999999999998</v>
+      </c>
+      <c r="J74">
+        <v>127.14</v>
+      </c>
+      <c r="K74">
+        <v>400</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-112.812</v>
+      </c>
+      <c r="N74">
+        <v>2025.6379999999999</v>
+      </c>
+      <c r="O74">
+        <v>2559.8209999999999</v>
+      </c>
+      <c r="P74">
+        <v>541.87</v>
+      </c>
+      <c r="Q74">
+        <v>-130.79499999999999</v>
+      </c>
+      <c r="R74">
+        <v>43496</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>3784.665</v>
+      </c>
+      <c r="U74">
+        <v>592.30499999999995</v>
+      </c>
+      <c r="V74">
+        <v>-144.01900000000001</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>38.085999999999999</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>153.51400000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>118.21</v>
+      </c>
+      <c r="D75">
+        <v>836.24199999999996</v>
+      </c>
+      <c r="E75">
+        <v>695.178</v>
+      </c>
+      <c r="F75">
+        <v>660.44399999999996</v>
+      </c>
+      <c r="G75">
+        <v>1643.883</v>
+      </c>
+      <c r="H75">
+        <v>6194.223</v>
+      </c>
+      <c r="I75">
+        <v>31.219000000000001</v>
+      </c>
+      <c r="J75">
+        <v>126.152</v>
+      </c>
+      <c r="K75">
+        <v>150</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1732.9269999999999</v>
+      </c>
+      <c r="O75">
+        <v>2278.788</v>
+      </c>
+      <c r="P75">
+        <v>291.84399999999999</v>
+      </c>
+      <c r="Q75">
+        <v>38.841999999999999</v>
+      </c>
+      <c r="R75">
+        <v>43585</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>3915.4349999999999</v>
+      </c>
+      <c r="U75">
+        <v>631.16099999999994</v>
+      </c>
+      <c r="V75">
+        <v>352.82</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-275.65600000000001</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="AA75">
+        <v>118.21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>99.929000000000002</v>
+      </c>
+      <c r="D76">
+        <v>852.97</v>
+      </c>
+      <c r="E76">
+        <v>663.21199999999999</v>
+      </c>
+      <c r="F76">
+        <v>679.94100000000003</v>
+      </c>
+      <c r="G76">
+        <v>1617.645</v>
+      </c>
+      <c r="H76">
+        <v>6153.4080000000004</v>
+      </c>
+      <c r="I76">
+        <v>14.846</v>
+      </c>
+      <c r="J76">
+        <v>125.285</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1630.45</v>
+      </c>
+      <c r="O76">
+        <v>2213.739</v>
+      </c>
+      <c r="P76">
+        <v>141.93799999999999</v>
+      </c>
+      <c r="Q76">
+        <v>55.633000000000003</v>
+      </c>
+      <c r="R76">
+        <v>43677</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>3939.6689999999999</v>
+      </c>
+      <c r="U76">
+        <v>686.78</v>
+      </c>
+      <c r="V76">
+        <v>370.46300000000002</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-264.74700000000001</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="AA76">
+        <v>99.929000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>160.714</v>
+      </c>
+      <c r="D77">
+        <v>851.08100000000002</v>
+      </c>
+      <c r="E77">
+        <v>764.452</v>
+      </c>
+      <c r="F77">
+        <v>682.03399999999999</v>
+      </c>
+      <c r="G77">
+        <v>1738.9169999999999</v>
+      </c>
+      <c r="H77">
+        <v>6405.16</v>
+      </c>
+      <c r="I77">
+        <v>19.815000000000001</v>
+      </c>
+      <c r="J77">
+        <v>120.093</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1752.453</v>
+      </c>
+      <c r="O77">
+        <v>2316.2840000000001</v>
+      </c>
+      <c r="P77">
+        <v>137.70699999999999</v>
+      </c>
+      <c r="Q77">
+        <v>41.845999999999997</v>
+      </c>
+      <c r="R77">
+        <v>43769</v>
+      </c>
+      <c r="S77">
+        <v>13896</v>
+      </c>
+      <c r="T77">
+        <v>4088.8760000000002</v>
+      </c>
+      <c r="U77">
+        <v>728.59699999999998</v>
+      </c>
+      <c r="V77">
+        <v>221.249</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-59.575000000000003</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>-3.2450000000000001</v>
+      </c>
+      <c r="AA77">
+        <v>160.714</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>104.06100000000001</v>
+      </c>
+      <c r="D78">
+        <v>834.38099999999997</v>
+      </c>
+      <c r="E78">
+        <v>1004.713</v>
+      </c>
+      <c r="F78">
+        <v>654.68200000000002</v>
+      </c>
+      <c r="G78">
+        <v>1951.4290000000001</v>
+      </c>
+      <c r="H78">
+        <v>7202.9030000000002</v>
+      </c>
+      <c r="I78">
+        <v>26.579000000000001</v>
+      </c>
+      <c r="J78">
+        <v>122.51600000000001</v>
+      </c>
+      <c r="K78">
+        <v>190</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-3.75</v>
+      </c>
+      <c r="N78">
+        <v>2055.7379999999998</v>
+      </c>
+      <c r="O78">
+        <v>3048.2130000000002</v>
+      </c>
+      <c r="P78">
+        <v>858.51800000000003</v>
+      </c>
+      <c r="Q78">
+        <v>-28.245000000000001</v>
+      </c>
+      <c r="R78">
+        <v>43861</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>4154.6899999999996</v>
+      </c>
+      <c r="U78">
+        <v>700.35599999999999</v>
+      </c>
+      <c r="V78">
+        <v>9.82</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>93.48</v>
+      </c>
+      <c r="Y78">
+        <v>459.15199999999999</v>
+      </c>
+      <c r="Z78">
+        <v>-2.5</v>
+      </c>
+      <c r="AA78">
+        <v>104.06100000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>109.92</v>
+      </c>
+      <c r="D79">
+        <v>861.327</v>
+      </c>
+      <c r="E79">
+        <v>828.45799999999997</v>
+      </c>
+      <c r="F79">
+        <v>690.90700000000004</v>
+      </c>
+      <c r="G79">
+        <v>1960.7550000000001</v>
+      </c>
+      <c r="H79">
+        <v>7322.4660000000003</v>
+      </c>
+      <c r="I79">
+        <v>51.756</v>
+      </c>
+      <c r="J79">
+        <v>114.37</v>
+      </c>
+      <c r="K79">
+        <v>100</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2054.1970000000001</v>
+      </c>
+      <c r="O79">
+        <v>3041.5169999999998</v>
+      </c>
+      <c r="P79">
+        <v>770.34100000000001</v>
+      </c>
+      <c r="Q79">
+        <v>156.136</v>
+      </c>
+      <c r="R79">
+        <v>43951</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>4280.9489999999996</v>
+      </c>
+      <c r="U79">
+        <v>856.42399999999998</v>
+      </c>
+      <c r="V79">
+        <v>379.91899999999998</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-114.17100000000001</v>
+      </c>
+      <c r="Y79">
+        <v>462.09399999999999</v>
+      </c>
+      <c r="Z79">
+        <v>-0.26200000000000001</v>
+      </c>
+      <c r="AA79">
+        <v>109.92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>252.911</v>
+      </c>
+      <c r="D80">
+        <v>964.13400000000001</v>
+      </c>
+      <c r="E80">
+        <v>855.005</v>
+      </c>
+      <c r="F80">
+        <v>784.84400000000005</v>
+      </c>
+      <c r="G80">
+        <v>2186.0149999999999</v>
+      </c>
+      <c r="H80">
+        <v>7663.25</v>
+      </c>
+      <c r="I80">
+        <v>37.125999999999998</v>
+      </c>
+      <c r="J80">
+        <v>107.104</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2056.277</v>
+      </c>
+      <c r="O80">
+        <v>3061.933</v>
+      </c>
+      <c r="P80">
+        <v>673.428</v>
+      </c>
+      <c r="Q80">
+        <v>193.57</v>
+      </c>
+      <c r="R80">
+        <v>44043</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4601.317</v>
+      </c>
+      <c r="U80">
+        <v>1049.922</v>
+      </c>
+      <c r="V80">
+        <v>399.423</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-130.785</v>
+      </c>
+      <c r="Y80">
+        <v>470.21499999999997</v>
+      </c>
+      <c r="Z80">
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="AA80">
+        <v>252.911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>197.45500000000001</v>
+      </c>
+      <c r="D81">
+        <v>1025.4390000000001</v>
+      </c>
+      <c r="E81">
+        <v>995.29200000000003</v>
+      </c>
+      <c r="F81">
+        <v>812.61</v>
+      </c>
+      <c r="G81">
+        <v>2549.2170000000001</v>
+      </c>
+      <c r="H81">
+        <v>8030.0619999999999</v>
+      </c>
+      <c r="I81">
+        <v>30.003</v>
+      </c>
+      <c r="J81">
+        <v>100.82299999999999</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2139.922</v>
+      </c>
+      <c r="O81">
+        <v>3117.6950000000002</v>
+      </c>
+      <c r="P81">
+        <v>663.49099999999999</v>
+      </c>
+      <c r="Q81">
+        <v>185.982</v>
+      </c>
+      <c r="R81">
+        <v>44135</v>
+      </c>
+      <c r="S81">
+        <v>15036</v>
+      </c>
+      <c r="T81">
+        <v>4912.3670000000002</v>
+      </c>
+      <c r="U81">
+        <v>1235.653</v>
+      </c>
+      <c r="V81">
+        <v>202.15100000000001</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>10.87</v>
+      </c>
+      <c r="Y81">
+        <v>462.411</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>197.45500000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>162.345</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>970.32100000000003</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1007.019</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>774.20799999999997</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2397.7240000000002</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>8012.8379999999997</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>25.378</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>25.658000000000001</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
         <v>-5.694</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>2171.3829999999998</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>3125.94</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>655.72799999999995</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-212.565</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44227</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>4886.8980000000001</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1023.074</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>173.958</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-293.06400000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>459.88</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>162.345</v>
       </c>
     </row>
